--- a/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
+++ b/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
@@ -4,15 +4,453 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="675" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="考试流程" sheetId="9" r:id="rId1"/>
+    <sheet name="考试计划模板" sheetId="1" r:id="rId2"/>
+    <sheet name="考试科目" sheetId="8" r:id="rId3"/>
+    <sheet name="考试安排模板" sheetId="11" r:id="rId4"/>
+    <sheet name="官方学习指南" sheetId="2" r:id="rId5"/>
+    <sheet name="学习时间安排" sheetId="10" r:id="rId6"/>
+    <sheet name="刷题时间安排" sheetId="3" r:id="rId7"/>
+    <sheet name="模拟考试安排" sheetId="4" r:id="rId8"/>
+    <sheet name="考试内容分析" sheetId="5" r:id="rId9"/>
+    <sheet name="反思回顾" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
+  <si>
+    <t>考试流程</t>
+  </si>
+  <si>
+    <t>报名网址</t>
+  </si>
+  <si>
+    <t>浙江省自学考试信息网</t>
+  </si>
+  <si>
+    <t>报名流程</t>
+  </si>
+  <si>
+    <t>新生：网上注册→网上审核→网上报考→网上缴费→完成报考</t>
+  </si>
+  <si>
+    <t>老生：网上报考→网上缴费→完成报考</t>
+  </si>
+  <si>
+    <t>新生注册时间</t>
+  </si>
+  <si>
+    <t>1904考期：2019年1月7日-1月11日
+1910考期：2019年7月8日-7月12日</t>
+  </si>
+  <si>
+    <t>新生注册</t>
+  </si>
+  <si>
+    <t>首考生须先办理注册，上传证件照片，待注册审核（3天）通过后，方可登录系统报考课程。</t>
+  </si>
+  <si>
+    <t>报考时间</t>
+  </si>
+  <si>
+    <t>1904考期：新生：2019年1月10日-1月15日
+老生：2019年1月7日-1月15日
+1910考期：新生：2019年7月10日-7月16日
+老生：2019年7月8日-7月16日</t>
+  </si>
+  <si>
+    <t>报考课程</t>
+  </si>
+  <si>
+    <t>老生及注册审核通过的新生登录系统直接进行报考。</t>
+  </si>
+  <si>
+    <t>缴费方式</t>
+  </si>
+  <si>
+    <t>报考课程后直接进行网上缴费，通过中国银联卡或支付宝支付。</t>
+  </si>
+  <si>
+    <t>准考证</t>
+  </si>
+  <si>
+    <t>登录系统进行打印</t>
+  </si>
+  <si>
+    <t>成绩查询</t>
+  </si>
+  <si>
+    <t>查询方式：考生登录系统查询</t>
+  </si>
+  <si>
+    <t>浙江成绩查询</t>
+  </si>
+  <si>
+    <t>查询时间：1904考期：5月7日起；1810考期：11月12日起</t>
+  </si>
+  <si>
+    <t>毕业申请</t>
+  </si>
+  <si>
+    <t>申请条件</t>
+  </si>
+  <si>
+    <t>1、考完专业考试计划规定的全部课程，并取得合格成绩
+2、完成规定的毕业论文(设计)或其他教学实践任务
+3、思想品德鉴定合格。
+4、获得专科(基础科)或本科毕业证书者，国家承认其学历</t>
+  </si>
+  <si>
+    <t>申请时间</t>
+  </si>
+  <si>
+    <t>上半年申请时间：5月
+下半年申请时间：11月</t>
+  </si>
+  <si>
+    <t>学位申请</t>
+  </si>
+  <si>
+    <t>主考院校</t>
+  </si>
+  <si>
+    <t>浙江工业大学</t>
+  </si>
+  <si>
+    <t>申请要求</t>
+  </si>
+  <si>
+    <t>对自2005年6月以后我校主考专业的毕业生，除按省自考办确定的按符合条件的前15%毕业生可申请授予学士学位以外，学校将直接接受优秀自考毕业生申请学士学位。凡英语PETS三级通过（或大学英语三级合格以上），三门学位课程均在70分以上，课程平均成绩70分以上，毕业设计（论文）75分以上者，可直接向浙江工业大学申报学位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>上半年申请时间：3月
+下半年申请时间：9月</t>
+  </si>
+  <si>
+    <t>申请流程</t>
+  </si>
+  <si>
+    <t>符合申报条件的考生填写《浙江省自学考试本科毕业生申请学士学位情况登记表》，携带相关材料至主考院校办理</t>
+  </si>
+  <si>
+    <t>提交资料</t>
+  </si>
+  <si>
+    <t>《浙江省自学考试本科毕业生申请学士学位情况登记表》、二寸免冠彩色蓝底证书照片二张（同时报送蓝底电子稿照片，带U盘或发邮箱：cliff@zjut.edu.cn.）、毕业证书原件和复印件、各课程成绩通知单原件和复印件</t>
+  </si>
+  <si>
+    <t>证书领取</t>
+  </si>
+  <si>
+    <t>浙江工业大学成教学院自考办修远楼（成教楼203室-邵科馆南面小楼），领取学位证书</t>
+  </si>
+  <si>
+    <t>宁波工程学院</t>
+  </si>
+  <si>
+    <t>自学考试本科毕业生各门课程（含外语、毕业论文或毕业设计）成绩合格，毕业论文（设计）成绩达到或超过本专业本次毕业论文（设计）平均成绩，各课程平均成绩（含毕业论文、毕业设计成绩）排名居本专业前15%，有关高校可授予相应的学士学位。如因专业毕业人数不足10人而超过15%的授予比例，但毕业生成绩确属优秀者，由学校酌情考虑授予学位</t>
+  </si>
+  <si>
+    <t>申请方式</t>
+  </si>
+  <si>
+    <t>学位授予不再由自考生自行申报，每届毕业生中符合学位授予条件的自考生名单由省自考办在每次毕业审定工作结束后一个月内向有关主考学校提供并告示自考生</t>
+  </si>
+  <si>
+    <t>考试计划模板</t>
+  </si>
+  <si>
+    <t>◆ 加考</t>
+  </si>
+  <si>
+    <t>▲ 不考英语替考</t>
+  </si>
+  <si>
+    <t>★ 选考</t>
+  </si>
+  <si>
+    <t>■ 港澳台加考</t>
+  </si>
+  <si>
+    <t>浙江省计算机科学与技术（本科）2020年4月考试计划</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>上午  09:00-11:30</t>
+  </si>
+  <si>
+    <t>下午  14:30-17:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4月11日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星期六</t>
+    </r>
+  </si>
+  <si>
+    <t>02142</t>
+  </si>
+  <si>
+    <t>数据结构导论</t>
+  </si>
+  <si>
+    <t>03709</t>
+  </si>
+  <si>
+    <t>马克思主义基本原理概论</t>
+  </si>
+  <si>
+    <t>03708</t>
+  </si>
+  <si>
+    <t>中国近现代史纲要</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4月12日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星期日</t>
+    </r>
+  </si>
+  <si>
+    <t>02628</t>
+  </si>
+  <si>
+    <t>管理经济学</t>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>02323</t>
+  </si>
+  <si>
+    <t>操作系统概论</t>
+  </si>
+  <si>
+    <t>04757</t>
+  </si>
+  <si>
+    <t>信息系统开发与管理</t>
+  </si>
+  <si>
+    <t>浙江省计算机科学与技术（本科）2019年10月考试计划</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10月19日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星期六</t>
+    </r>
+  </si>
+  <si>
+    <t>00910</t>
+  </si>
+  <si>
+    <t>网络经济与企业管理</t>
+  </si>
+  <si>
+    <t>04735</t>
+  </si>
+  <si>
+    <t>数据库系统原理</t>
+  </si>
+  <si>
+    <t>02378</t>
+  </si>
+  <si>
+    <t>信息资源管理</t>
+  </si>
+  <si>
+    <t>02375</t>
+  </si>
+  <si>
+    <t>运筹学基础</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10月20日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星期日</t>
+    </r>
+  </si>
+  <si>
+    <t>04741</t>
+  </si>
+  <si>
+    <t>计算机网络原理</t>
+  </si>
+  <si>
+    <t>04737</t>
+  </si>
+  <si>
+    <t>C++程序设计</t>
+  </si>
+  <si>
+    <t>考试科目</t>
+  </si>
+  <si>
+    <t>浙江省  080901  计算机科学与技术（本科）
+原名称：1082208  计算机信息管理（本科）</t>
+  </si>
+  <si>
+    <t>主考院校：浙江工业大学</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>课程代码</t>
+  </si>
+  <si>
+    <t>课程名称</t>
+  </si>
+  <si>
+    <t>学分</t>
+  </si>
+  <si>
+    <t>课程性质</t>
+  </si>
+  <si>
+    <t>是否完成</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>必考</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>英语(二)</t>
+  </si>
+  <si>
+    <t>04736</t>
+  </si>
+  <si>
+    <t>数据库系统原理实践</t>
+  </si>
+  <si>
+    <t>03173</t>
+  </si>
+  <si>
+    <t>软件开发工具（实）</t>
+  </si>
+  <si>
+    <t>21048</t>
+  </si>
+  <si>
+    <t>毕业设计</t>
+  </si>
+  <si>
+    <t>选考</t>
+  </si>
+  <si>
+    <t>不少于6门，学分不低于28学分，其中实践课程认定学分不超过2学分</t>
+  </si>
+  <si>
+    <t>04738</t>
+  </si>
+  <si>
+    <t>C++程序设计实践</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>注：新专业计划选修课程，可在推荐选修课程中选考，也可在我省现行开考同层次专业中选考与本专业核心课程不同的课程；
+“00015英语（二）”参加全国英语等级考试（PETS）三级或以上笔试。35周岁以上考生可免考英语（二），但须在其他专科起点本科专业中选考不低于14学分的若干专业课程</t>
+  </si>
+  <si>
+    <t>考试安排模板</t>
+  </si>
+  <si>
+    <t>课程描述</t>
+  </si>
+  <si>
+    <t>考试时间</t>
+  </si>
+  <si>
+    <t>考试地点</t>
+  </si>
+  <si>
+    <t>是否打印考证</t>
+  </si>
+  <si>
+    <t>准备情况</t>
+  </si>
+  <si>
+    <t>准备时间（预估）</t>
+  </si>
+  <si>
+    <t>准备时间（实际）</t>
+  </si>
+  <si>
+    <t>分数评估</t>
+  </si>
+  <si>
+    <t>反馈与总结</t>
+  </si>
+  <si>
+    <t>尚德机构网页版</t>
+  </si>
+  <si>
+    <t>尚德机构APP</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23,7 +461,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,11 +470,238 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -62,14 +727,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,13 +839,89 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4573E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6975D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6975D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEFFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB52D4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7E1D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -377,12 +1110,927 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="84">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6975D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6975D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6975D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEDEFFA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6975D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6975D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6975D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6975D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6975D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6975D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEDEFFA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEDEFFA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6975D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6975D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEDEFFA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6975D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6975D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6975D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6975D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB52D4F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB52D4F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB52D4F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB52D4F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB52D4F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB52D4F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB52D4F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB52D4F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB52D4F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB52D4F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB52D4F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB52D4F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB52D4F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB52D4F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB52D4F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB52D4F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB52D4F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB52D4F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB52D4F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB52D4F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB52D4F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB52D4F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB52D4F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,161 +2132,720 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="77" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="59" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="59" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="61" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="65" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="60" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="63" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="69" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="70" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="71" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="72" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="73" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="72" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="71" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -688,14 +2895,115 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="超链接 3" xfId="51"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00B2EE33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="4373245"/>
+          <a:ext cx="10922635" cy="6260465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542290</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9525"/>
+          <a:ext cx="10819765" cy="4189095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,21 +3293,2768 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.6" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.5" customHeight="1" spans="1:10">
+      <c r="A1" s="25"/>
+      <c r="B1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="170"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="171"/>
+    </row>
+    <row r="3" ht="35" customHeight="1" spans="1:10">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="173"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A4" s="137"/>
+      <c r="B4" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="175"/>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A5" s="140"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="176"/>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:10">
+      <c r="A6" s="137"/>
+      <c r="B6" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175"/>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A7" s="137"/>
+      <c r="B7" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
+    </row>
+    <row r="8" ht="68" customHeight="1" spans="1:10">
+      <c r="A8" s="137"/>
+      <c r="B8" s="138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A9" s="137"/>
+      <c r="B9" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="175"/>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="175"/>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A11" s="137"/>
+      <c r="B11" s="138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="175"/>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A12" s="133"/>
+      <c r="B12" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="173"/>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A13" s="133"/>
+      <c r="B13" s="143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="179"/>
+      <c r="J13" s="173"/>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A14" s="133"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="173"/>
+    </row>
+    <row r="15" ht="68" customHeight="1" spans="1:10">
+      <c r="A15" s="148"/>
+      <c r="B15" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
+    </row>
+    <row r="16" ht="35" customHeight="1" spans="1:10">
+      <c r="A16" s="148"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="182"/>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A17" s="154"/>
+      <c r="B17" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="185"/>
+    </row>
+    <row r="18" ht="54" customHeight="1" spans="1:14">
+      <c r="A18" s="148"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="182"/>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" spans="1:10">
+      <c r="A19" s="148"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="182"/>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A20" s="148"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="160" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="182"/>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A21" s="148"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="158" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="182"/>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A22" s="148"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="182"/>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:10">
+      <c r="A23" s="148"/>
+      <c r="B23" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="157" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="182"/>
+    </row>
+    <row r="24" ht="80" customHeight="1" spans="1:10">
+      <c r="A24" s="148"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="182"/>
+    </row>
+    <row r="25" ht="32" customHeight="1" spans="1:10">
+      <c r="A25" s="148"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="166" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="182"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:10">
+      <c r="A26" s="167"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="188"/>
+    </row>
+    <row r="27" ht="17.25" spans="1:10">
+      <c r="A27" s="169"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="H13:I14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="浙江省自学考试信息网"/>
+    <hyperlink ref="C10:I10" r:id="rId1" display="浙江省自学考试信息网"/>
+    <hyperlink ref="H13" r:id="rId2" display="浙江成绩查询"/>
+    <hyperlink ref="C3" r:id="rId1" display="浙江省自学考试信息网"/>
+    <hyperlink ref="C3:I3" r:id="rId1" display="浙江省自学考试信息网"/>
+    <hyperlink ref="C3:I3" r:id="rId1" display="浙江省自学考试信息网"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="5.63333333333333" style="63" customWidth="1"/>
+    <col min="3" max="3" width="10.3416666666667" style="63" customWidth="1"/>
+    <col min="4" max="4" width="10.0083333333333" style="63" customWidth="1"/>
+    <col min="5" max="5" width="25.3416666666667" style="63" customWidth="1"/>
+    <col min="6" max="6" width="10.675" style="63" customWidth="1"/>
+    <col min="7" max="7" width="10.0083333333333" style="63" customWidth="1"/>
+    <col min="8" max="8" width="25.3416666666667" style="63" customWidth="1"/>
+    <col min="9" max="9" width="6.45" style="63" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="63" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="63" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="63" customFormat="1" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A1" s="76"/>
+      <c r="B1" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="117"/>
+    </row>
+    <row r="2" s="64" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="118"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+    </row>
+    <row r="3" s="64" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="119"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" s="64" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="120"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" s="65" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
+      <c r="A5" s="86"/>
+      <c r="B5" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A6" s="86"/>
+      <c r="B6" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="93"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="122"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A7" s="86"/>
+      <c r="B7" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="100"/>
+      <c r="G7" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="124"/>
+      <c r="J7" s="122"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+    </row>
+    <row r="8" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A8" s="86"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="122"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A9" s="86"/>
+      <c r="B9" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="122"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+    </row>
+    <row r="10" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A10" s="86"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="127"/>
+      <c r="J10" s="122"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+    </row>
+    <row r="11" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="122"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+    </row>
+    <row r="12" s="65" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
+      <c r="A12" s="86"/>
+      <c r="B12" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+    </row>
+    <row r="13" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A13" s="86"/>
+      <c r="B13" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="93"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="122"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+    </row>
+    <row r="14" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A14" s="86"/>
+      <c r="B14" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="124"/>
+      <c r="J14" s="122"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+    </row>
+    <row r="15" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A15" s="86"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="100"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="122"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+    </row>
+    <row r="16" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A16" s="86"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="100"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="122"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+    </row>
+    <row r="17" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A17" s="86"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="122"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+    </row>
+    <row r="18" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A18" s="86"/>
+      <c r="B18" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="106"/>
+      <c r="G18" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="122"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+    </row>
+    <row r="19" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A19" s="86"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="122"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+    </row>
+    <row r="20" s="65" customFormat="1" spans="1:21">
+      <c r="A20" s="86"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="128"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+    </row>
+    <row r="21" s="65" customFormat="1" ht="17.25" spans="1:21">
+      <c r="A21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="129"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+    </row>
+    <row r="22" s="63" customFormat="1" spans="12:21">
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+    </row>
+    <row r="23" s="66" customFormat="1" ht="15" spans="12:21">
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+    </row>
+    <row r="24" s="66" customFormat="1" ht="15" spans="12:21">
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+    </row>
+    <row r="25" s="67" customFormat="1" spans="12:21">
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+    </row>
+    <row r="26" s="67" customFormat="1" spans="12:21">
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+    </row>
+    <row r="27" s="67" customFormat="1"/>
+    <row r="28" s="67" customFormat="1"/>
+    <row r="29" s="67" customFormat="1"/>
+    <row r="30" s="67" customFormat="1"/>
+    <row r="31" s="67" customFormat="1"/>
+    <row r="32" s="67" customFormat="1"/>
+    <row r="33" s="67" customFormat="1"/>
+    <row r="34" s="67" customFormat="1"/>
+    <row r="35" s="67" customFormat="1"/>
+    <row r="36" s="67" customFormat="1"/>
+    <row r="37" s="67" customFormat="1"/>
+    <row r="38" s="67" customFormat="1"/>
+    <row r="39" s="67" customFormat="1"/>
+    <row r="40" s="67" customFormat="1"/>
+    <row r="41" s="67" customFormat="1"/>
+    <row r="42" s="67" customFormat="1"/>
+    <row r="43" s="67" customFormat="1"/>
+    <row r="44" s="67" customFormat="1"/>
+    <row r="45" s="68" customFormat="1"/>
+    <row r="46" s="66" customFormat="1" ht="15"/>
+    <row r="48" s="69" customFormat="1" spans="2:11">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" s="70" customFormat="1" ht="13.5" spans="2:11">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" s="71" customFormat="1" spans="2:11">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" s="72" customFormat="1" spans="2:11">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" s="73" customFormat="1" spans="2:11">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" s="72" customFormat="1" spans="2:11">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" s="72" customFormat="1" spans="2:11">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" s="72" customFormat="1" spans="2:11">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" s="72" customFormat="1" spans="2:11">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" s="72" customFormat="1" spans="2:11">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" s="72" customFormat="1" spans="2:11">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" s="71" customFormat="1" spans="2:11">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" s="71" customFormat="1" spans="2:11">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" s="71" customFormat="1" spans="2:11">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" s="74" customFormat="1" spans="2:11">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" s="74" customFormat="1" spans="2:11">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" s="75" customFormat="1" spans="2:11">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" s="74" customFormat="1" spans="2:11">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" s="74" customFormat="1" spans="2:11">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" s="74" customFormat="1" spans="2:11">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" s="74" customFormat="1" spans="2:11">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" s="74" customFormat="1" spans="2:11">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" s="74" customFormat="1" spans="2:11">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" s="74" customFormat="1" spans="2:11">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" s="74" customFormat="1" spans="2:11">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" s="63" customFormat="1" spans="2:11">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" s="63" customFormat="1" spans="2:11">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B14:C17"/>
+    <mergeCell ref="B18:C19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="8.675" customWidth="1"/>
+    <col min="3" max="3" width="12.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.2166666666667" customWidth="1"/>
+    <col min="7" max="7" width="8.675" customWidth="1"/>
+    <col min="8" max="9" width="12.3416666666667" customWidth="1"/>
+    <col min="10" max="10" width="8.675" customWidth="1"/>
+    <col min="11" max="11" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1" spans="1:11">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:11">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A3" s="28"/>
+      <c r="B3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:11">
+      <c r="A4" s="28"/>
+      <c r="B4" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:11">
+      <c r="A5" s="28"/>
+      <c r="B5" s="37">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39">
+        <v>2</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="39" t="str">
+        <f>IF(OR(J5&gt;=75,J5="-"),"是✅","否❌")</f>
+        <v>否❌</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:11">
+      <c r="A6" s="28"/>
+      <c r="B6" s="40">
+        <v>2</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42">
+        <v>4</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="42" t="str">
+        <f t="shared" ref="I6:I21" si="0">IF(OR(J6&gt;=75,J6="-"),"是✅","否❌")</f>
+        <v>否❌</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A7" s="28"/>
+      <c r="B7" s="37">
+        <v>3</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39">
+        <v>14</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:11">
+      <c r="A8" s="28"/>
+      <c r="B8" s="40">
+        <v>4</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42">
+        <v>4</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="1:11">
+      <c r="A9" s="28"/>
+      <c r="B9" s="37">
+        <v>5</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39">
+        <v>2</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>是✅</v>
+      </c>
+      <c r="J9" s="39">
+        <v>82</v>
+      </c>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A10" s="28"/>
+      <c r="B10" s="40">
+        <v>6</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42">
+        <v>5</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" ht="39" customHeight="1" spans="1:11">
+      <c r="A11" s="28"/>
+      <c r="B11" s="37">
+        <v>7</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39">
+        <v>6</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>是✅</v>
+      </c>
+      <c r="J11" s="39">
+        <v>89</v>
+      </c>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:11">
+      <c r="A12" s="28"/>
+      <c r="B12" s="40">
+        <v>8</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42">
+        <v>5</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A13" s="28"/>
+      <c r="B13" s="37">
+        <v>9</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39">
+        <v>4</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A14" s="28"/>
+      <c r="B14" s="40">
+        <v>10</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>是✅</v>
+      </c>
+      <c r="J14" s="42">
+        <v>79</v>
+      </c>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:11">
+      <c r="A15" s="28"/>
+      <c r="B15" s="37">
+        <v>11</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39">
+        <v>6</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A16" s="28"/>
+      <c r="B16" s="40">
+        <v>12</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42">
+        <v>4</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A17" s="28"/>
+      <c r="B17" s="37">
+        <v>13</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39">
+        <v>2</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>是✅</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A18" s="28"/>
+      <c r="B18" s="40">
+        <v>14</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42">
+        <v>4</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A19" s="28"/>
+      <c r="B19" s="37">
+        <v>15</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39">
+        <v>4</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A20" s="28"/>
+      <c r="B20" s="40">
+        <v>16</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42">
+        <v>4</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A21" s="28"/>
+      <c r="B21" s="37">
+        <v>17</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39">
+        <v>5</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>否❌</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="60"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="61"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K15:K21"/>
+    <mergeCell ref="B22:K24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.675" customWidth="1"/>
+    <col min="5" max="7" width="12.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.0083333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="11" width="21.675" customWidth="1"/>
+    <col min="12" max="12" width="12.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.175" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:31">
+      <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16">
+        <v>4</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
+        <v>14</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>6</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16">
+        <v>4</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
+        <v>4</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16">
+        <v>4</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13">
+        <v>5</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="27" ht="15" spans="7:7">
+      <c r="G27" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="R6:R34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="18" max="18" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="18:18">
+      <c r="R6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="18:18">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="18:18">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="18:18">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="18:18">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="30" spans="18:18">
+      <c r="R30" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="18:18">
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="18:18">
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="18:18">
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="18:18">
+      <c r="R34" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R6:R10"/>
+    <mergeCell ref="R30:R34"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R6:R10" r:id="rId2" display="尚德机构网页版"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1016,7 +6071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1027,8 +6082,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
+++ b/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="675" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="考试流程" sheetId="9" r:id="rId1"/>
     <sheet name="考试计划模板" sheetId="1" r:id="rId2"/>
     <sheet name="考试科目" sheetId="8" r:id="rId3"/>
     <sheet name="考试安排模板" sheetId="11" r:id="rId4"/>
-    <sheet name="官方学习指南" sheetId="2" r:id="rId5"/>
-    <sheet name="学习时间安排" sheetId="10" r:id="rId6"/>
-    <sheet name="刷题时间安排" sheetId="3" r:id="rId7"/>
-    <sheet name="模拟考试安排" sheetId="4" r:id="rId8"/>
-    <sheet name="考试内容分析" sheetId="5" r:id="rId9"/>
-    <sheet name="反思回顾" sheetId="7" r:id="rId10"/>
+    <sheet name="考试安排" sheetId="12" r:id="rId5"/>
+    <sheet name="官方学习指南" sheetId="2" r:id="rId6"/>
+    <sheet name="学习时间安排" sheetId="10" r:id="rId7"/>
+    <sheet name="刷题时间安排" sheetId="3" r:id="rId8"/>
+    <sheet name="模拟考试安排" sheetId="4" r:id="rId9"/>
+    <sheet name="考试内容分析" sheetId="5" r:id="rId10"/>
+    <sheet name="反思回顾" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="125">
   <si>
     <t>考试流程</t>
   </si>
@@ -194,6 +195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">4月11日
 </t>
     </r>
@@ -228,6 +235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">4月12日
 </t>
     </r>
@@ -268,6 +281,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10月19日
 </t>
     </r>
@@ -308,6 +327,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10月20日
 </t>
     </r>
@@ -443,6 +468,18 @@
   </si>
   <si>
     <t>反馈与总结</t>
+  </si>
+  <si>
+    <t>2022-10-22 09:00~11:30</t>
+  </si>
+  <si>
+    <t>2022-10-22 14:30~17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-10-23 09:00~11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-10-23 14:30~17:00</t>
   </si>
   <si>
     <t>尚德机构网页版</t>
@@ -862,7 +899,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,19 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6975D0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEDEFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,7 +1135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1192,6 +1217,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF6975D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6975D0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEDEFFA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF6975D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF6975D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1218,6 +1280,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6975D0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF6975D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2139,103 +2214,109 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="81" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="77" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2244,19 +2325,19 @@
     <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2265,26 +2346,20 @@
     <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2318,158 +2393,161 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2509,19 +2587,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2539,309 +2617,300 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="63" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="59" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="59" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="65" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="65" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="68" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="71" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="70" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="73" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="73" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="74" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="61" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="65" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="75" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="60" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="63" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="69" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="70" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="75" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="75" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="77" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="76" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="71" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="72" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="73" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="72" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="71" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="78" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="75" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3296,7 +3365,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3312,427 +3381,427 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.5" customHeight="1" spans="1:10">
-      <c r="A1" s="25"/>
-      <c r="B1" s="130" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="170"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="171"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="169"/>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:10">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="173"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="171"/>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A4" s="137"/>
-      <c r="B4" s="138" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="175"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="173"/>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A5" s="140"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="139" t="s">
+      <c r="A5" s="138"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="176"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="174"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:10">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138" t="s">
+      <c r="A6" s="135"/>
+      <c r="B6" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="173"/>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A7" s="137"/>
-      <c r="B7" s="138" t="s">
+      <c r="A7" s="135"/>
+      <c r="B7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
     </row>
     <row r="8" ht="68" customHeight="1" spans="1:10">
-      <c r="A8" s="137"/>
-      <c r="B8" s="138" t="s">
+      <c r="A8" s="135"/>
+      <c r="B8" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138" t="s">
+      <c r="A9" s="135"/>
+      <c r="B9" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="175"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A10" s="137"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="142" t="s">
+      <c r="A10" s="135"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="175"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="173"/>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138" t="s">
+      <c r="A11" s="135"/>
+      <c r="B11" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="175"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="173"/>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A12" s="133"/>
-      <c r="B12" s="138" t="s">
+      <c r="A12" s="132"/>
+      <c r="B12" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="173"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="171"/>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A13" s="133"/>
-      <c r="B13" s="143" t="s">
+      <c r="A13" s="132"/>
+      <c r="B13" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145" t="s">
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="179"/>
-      <c r="J13" s="173"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A14" s="133"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="139" t="s">
+      <c r="A14" s="132"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="173"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="171"/>
     </row>
     <row r="15" ht="68" customHeight="1" spans="1:10">
-      <c r="A15" s="148"/>
-      <c r="B15" s="149" t="s">
+      <c r="A15" s="146"/>
+      <c r="B15" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="151" t="s">
+      <c r="D15" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="182"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" ht="35" customHeight="1" spans="1:10">
-      <c r="A16" s="148"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="150" t="s">
+      <c r="A16" s="146"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="182"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="180"/>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A17" s="154"/>
-      <c r="B17" s="155" t="s">
+      <c r="A17" s="152"/>
+      <c r="B17" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="157" t="s">
+      <c r="D17" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="185"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="183"/>
     </row>
     <row r="18" ht="54" customHeight="1" spans="1:14">
-      <c r="A18" s="148"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="158" t="s">
+      <c r="A18" s="146"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="182"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="180"/>
       <c r="N18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" ht="35" customHeight="1" spans="1:10">
-      <c r="A19" s="148"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="158" t="s">
+      <c r="A19" s="146"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="182"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="180"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A20" s="148"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="158" t="s">
+      <c r="A20" s="146"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="160" t="s">
+      <c r="D20" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="182"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="180"/>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A21" s="148"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="158" t="s">
+      <c r="A21" s="146"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="160" t="s">
+      <c r="D21" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="182"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A22" s="148"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="162" t="s">
+      <c r="A22" s="146"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="182"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A23" s="148"/>
-      <c r="B23" s="155" t="s">
+      <c r="A23" s="146"/>
+      <c r="B23" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="156" t="s">
+      <c r="C23" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="182"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" ht="80" customHeight="1" spans="1:10">
-      <c r="A24" s="148"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="163" t="s">
+      <c r="A24" s="146"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="182"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" ht="32" customHeight="1" spans="1:10">
-      <c r="A25" s="148"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="165" t="s">
+      <c r="A25" s="146"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="166" t="s">
+      <c r="D25" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="182"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" ht="16.5" spans="1:10">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="188"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="186"/>
     </row>
     <row r="27" ht="17.25" spans="1:10">
-      <c r="A27" s="169"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="129"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -3797,6 +3866,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3808,45 +3893,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="5.63333333333333" style="63" customWidth="1"/>
-    <col min="3" max="3" width="10.3416666666667" style="63" customWidth="1"/>
-    <col min="4" max="4" width="10.0083333333333" style="63" customWidth="1"/>
-    <col min="5" max="5" width="25.3416666666667" style="63" customWidth="1"/>
-    <col min="6" max="6" width="10.675" style="63" customWidth="1"/>
-    <col min="7" max="7" width="10.0083333333333" style="63" customWidth="1"/>
-    <col min="8" max="8" width="25.3416666666667" style="63" customWidth="1"/>
-    <col min="9" max="9" width="6.45" style="63" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="63" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="63" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="63"/>
+    <col min="1" max="1" width="11.625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.63333333333333" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.3416666666667" style="64" customWidth="1"/>
+    <col min="4" max="4" width="10.0083333333333" style="64" customWidth="1"/>
+    <col min="5" max="5" width="25.3416666666667" style="64" customWidth="1"/>
+    <col min="6" max="6" width="10.675" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.0083333333333" style="64" customWidth="1"/>
+    <col min="8" max="8" width="25.3416666666667" style="64" customWidth="1"/>
+    <col min="9" max="9" width="6.45" style="64" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="64" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="64" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" s="63" customFormat="1" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77" t="s">
+    <row r="1" s="64" customFormat="1" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A1" s="77"/>
+      <c r="B1" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="117"/>
-    </row>
-    <row r="2" s="64" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="118"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="118"/>
+    </row>
+    <row r="2" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="119"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -3858,25 +3943,25 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" s="64" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+    <row r="3" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="119"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="120"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -3888,17 +3973,17 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" s="64" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="120"/>
+    <row r="4" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="121"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -3910,19 +3995,19 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" s="65" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
-      <c r="A5" s="86"/>
-      <c r="B5" s="88" t="s">
+    <row r="5" s="66" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
+      <c r="A5" s="87"/>
+      <c r="B5" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -3934,23 +4019,23 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A6" s="86"/>
-      <c r="B6" s="90" t="s">
+    <row r="6" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A6" s="87"/>
+      <c r="B6" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="122"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="123"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -3962,27 +4047,27 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A7" s="86"/>
-      <c r="B7" s="96" t="s">
+    <row r="7" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A7" s="87"/>
+      <c r="B7" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98" t="s">
+      <c r="C7" s="98"/>
+      <c r="D7" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="99" t="s">
+      <c r="H7" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="124"/>
-      <c r="J7" s="122"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="123"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -3994,21 +4079,21 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A8" s="86"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103" t="s">
+    <row r="8" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A8" s="87"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="122"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="123"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -4020,31 +4105,31 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A9" s="86"/>
-      <c r="B9" s="96" t="s">
+    <row r="9" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A9" s="87"/>
+      <c r="B9" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="100" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="122"/>
+      <c r="J9" s="123"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -4056,21 +4141,21 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A10" s="86"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="110" t="s">
+    <row r="10" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A10" s="87"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="110" t="s">
+      <c r="H10" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="122"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="123"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
@@ -4082,17 +4167,17 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="122"/>
+    <row r="11" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A11" s="87"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="123"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -4104,19 +4189,19 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" s="65" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
-      <c r="A12" s="86"/>
-      <c r="B12" s="88" t="s">
+    <row r="12" s="66" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
+      <c r="A12" s="87"/>
+      <c r="B12" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -4128,23 +4213,23 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A13" s="86"/>
-      <c r="B13" s="90" t="s">
+    <row r="13" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A13" s="87"/>
+      <c r="B13" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95" t="s">
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="122"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="123"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
@@ -4156,29 +4241,29 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A14" s="86"/>
-      <c r="B14" s="96" t="s">
+    <row r="14" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A14" s="87"/>
+      <c r="B14" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98" t="s">
+      <c r="C14" s="98"/>
+      <c r="D14" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="99" t="s">
+      <c r="H14" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="124"/>
-      <c r="J14" s="122"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="123"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
@@ -4190,21 +4275,21 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A15" s="86"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="98" t="s">
+    <row r="15" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A15" s="87"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="122"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="123"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
@@ -4216,21 +4301,21 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A16" s="86"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="98" t="s">
+    <row r="16" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A16" s="87"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="122"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="123"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -4242,23 +4327,23 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A17" s="86"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103" t="s">
+    <row r="17" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A17" s="87"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="122"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="123"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
@@ -4270,29 +4355,29 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A18" s="86"/>
-      <c r="B18" s="96" t="s">
+    <row r="18" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A18" s="87"/>
+      <c r="B18" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98" t="s">
+      <c r="C18" s="98"/>
+      <c r="D18" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="106"/>
-      <c r="G18" s="99" t="s">
+      <c r="F18" s="107"/>
+      <c r="G18" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="99" t="s">
+      <c r="H18" s="100" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="122"/>
+      <c r="J18" s="123"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -4304,23 +4389,23 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A19" s="86"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109" t="s">
+    <row r="19" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A19" s="87"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="110" t="s">
+      <c r="E19" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="111" t="s">
+      <c r="F19" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="122"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="123"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -4332,17 +4417,17 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" s="65" customFormat="1" spans="1:21">
-      <c r="A20" s="86"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="128"/>
+    <row r="20" s="66" customFormat="1" spans="1:21">
+      <c r="A20" s="87"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="127"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -4354,17 +4439,17 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" s="65" customFormat="1" ht="17.25" spans="1:21">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="129"/>
+    <row r="21" s="66" customFormat="1" ht="17.25" spans="1:21">
+      <c r="A21" s="116"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="128"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -4376,7 +4461,7 @@
       <c r="T21"/>
       <c r="U21"/>
     </row>
-    <row r="22" s="63" customFormat="1" spans="12:21">
+    <row r="22" s="64" customFormat="1" spans="12:21">
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
@@ -4388,7 +4473,7 @@
       <c r="T22"/>
       <c r="U22"/>
     </row>
-    <row r="23" s="66" customFormat="1" ht="15" spans="12:21">
+    <row r="23" s="67" customFormat="1" ht="15" spans="12:21">
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -4400,7 +4485,7 @@
       <c r="T23"/>
       <c r="U23"/>
     </row>
-    <row r="24" s="66" customFormat="1" ht="15" spans="12:21">
+    <row r="24" s="67" customFormat="1" ht="15" spans="12:21">
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -4412,7 +4497,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" s="67" customFormat="1" spans="12:21">
+    <row r="25" s="68" customFormat="1" spans="12:21">
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -4424,7 +4509,7 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" s="67" customFormat="1" spans="12:21">
+    <row r="26" s="68" customFormat="1" spans="12:21">
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -4436,27 +4521,27 @@
       <c r="T26"/>
       <c r="U26"/>
     </row>
-    <row r="27" s="67" customFormat="1"/>
-    <row r="28" s="67" customFormat="1"/>
-    <row r="29" s="67" customFormat="1"/>
-    <row r="30" s="67" customFormat="1"/>
-    <row r="31" s="67" customFormat="1"/>
-    <row r="32" s="67" customFormat="1"/>
-    <row r="33" s="67" customFormat="1"/>
-    <row r="34" s="67" customFormat="1"/>
-    <row r="35" s="67" customFormat="1"/>
-    <row r="36" s="67" customFormat="1"/>
-    <row r="37" s="67" customFormat="1"/>
-    <row r="38" s="67" customFormat="1"/>
-    <row r="39" s="67" customFormat="1"/>
-    <row r="40" s="67" customFormat="1"/>
-    <row r="41" s="67" customFormat="1"/>
-    <row r="42" s="67" customFormat="1"/>
-    <row r="43" s="67" customFormat="1"/>
-    <row r="44" s="67" customFormat="1"/>
-    <row r="45" s="68" customFormat="1"/>
-    <row r="46" s="66" customFormat="1" ht="15"/>
-    <row r="48" s="69" customFormat="1" spans="2:11">
+    <row r="27" s="68" customFormat="1"/>
+    <row r="28" s="68" customFormat="1"/>
+    <row r="29" s="68" customFormat="1"/>
+    <row r="30" s="68" customFormat="1"/>
+    <row r="31" s="68" customFormat="1"/>
+    <row r="32" s="68" customFormat="1"/>
+    <row r="33" s="68" customFormat="1"/>
+    <row r="34" s="68" customFormat="1"/>
+    <row r="35" s="68" customFormat="1"/>
+    <row r="36" s="68" customFormat="1"/>
+    <row r="37" s="68" customFormat="1"/>
+    <row r="38" s="68" customFormat="1"/>
+    <row r="39" s="68" customFormat="1"/>
+    <row r="40" s="68" customFormat="1"/>
+    <row r="41" s="68" customFormat="1"/>
+    <row r="42" s="68" customFormat="1"/>
+    <row r="43" s="68" customFormat="1"/>
+    <row r="44" s="68" customFormat="1"/>
+    <row r="45" s="69" customFormat="1"/>
+    <row r="46" s="67" customFormat="1" ht="15"/>
+    <row r="48" s="70" customFormat="1" spans="2:11">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -4468,7 +4553,7 @@
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" s="70" customFormat="1" ht="13.5" spans="2:11">
+    <row r="49" s="71" customFormat="1" ht="13.5" spans="2:11">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -4480,7 +4565,7 @@
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" s="71" customFormat="1" spans="2:11">
+    <row r="50" s="72" customFormat="1" spans="2:11">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -4492,7 +4577,7 @@
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" s="72" customFormat="1" spans="2:11">
+    <row r="51" s="73" customFormat="1" spans="2:11">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -4504,7 +4589,7 @@
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" s="73" customFormat="1" spans="2:11">
+    <row r="52" s="74" customFormat="1" spans="2:11">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -4516,7 +4601,7 @@
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" s="72" customFormat="1" spans="2:11">
+    <row r="53" s="73" customFormat="1" spans="2:11">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -4528,7 +4613,7 @@
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" s="72" customFormat="1" spans="2:11">
+    <row r="54" s="73" customFormat="1" spans="2:11">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -4540,7 +4625,7 @@
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" s="72" customFormat="1" spans="2:11">
+    <row r="55" s="73" customFormat="1" spans="2:11">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -4552,7 +4637,7 @@
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" s="72" customFormat="1" spans="2:11">
+    <row r="56" s="73" customFormat="1" spans="2:11">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -4564,7 +4649,7 @@
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" s="72" customFormat="1" spans="2:11">
+    <row r="57" s="73" customFormat="1" spans="2:11">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -4576,7 +4661,7 @@
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" s="72" customFormat="1" spans="2:11">
+    <row r="58" s="73" customFormat="1" spans="2:11">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -4588,7 +4673,7 @@
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" s="71" customFormat="1" spans="2:11">
+    <row r="59" s="72" customFormat="1" spans="2:11">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -4600,7 +4685,7 @@
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" s="71" customFormat="1" spans="2:11">
+    <row r="60" s="72" customFormat="1" spans="2:11">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -4612,7 +4697,7 @@
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" s="71" customFormat="1" spans="2:11">
+    <row r="61" s="72" customFormat="1" spans="2:11">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -4624,7 +4709,7 @@
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" s="74" customFormat="1" spans="2:11">
+    <row r="62" s="75" customFormat="1" spans="2:11">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -4636,7 +4721,7 @@
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" s="74" customFormat="1" spans="2:11">
+    <row r="63" s="75" customFormat="1" spans="2:11">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -4648,7 +4733,7 @@
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" s="75" customFormat="1" spans="2:11">
+    <row r="64" s="76" customFormat="1" spans="2:11">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -4660,7 +4745,7 @@
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" s="74" customFormat="1" spans="2:11">
+    <row r="65" s="75" customFormat="1" spans="2:11">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -4672,7 +4757,7 @@
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" s="74" customFormat="1" spans="2:11">
+    <row r="66" s="75" customFormat="1" spans="2:11">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -4684,7 +4769,7 @@
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" s="74" customFormat="1" spans="2:11">
+    <row r="67" s="75" customFormat="1" spans="2:11">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -4696,7 +4781,7 @@
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" s="74" customFormat="1" spans="2:11">
+    <row r="68" s="75" customFormat="1" spans="2:11">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -4708,7 +4793,7 @@
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" s="74" customFormat="1" spans="2:11">
+    <row r="69" s="75" customFormat="1" spans="2:11">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -4720,7 +4805,7 @@
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" s="74" customFormat="1" spans="2:11">
+    <row r="70" s="75" customFormat="1" spans="2:11">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -4732,7 +4817,7 @@
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" s="74" customFormat="1" spans="2:11">
+    <row r="71" s="75" customFormat="1" spans="2:11">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -4744,7 +4829,7 @@
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" s="74" customFormat="1" spans="2:11">
+    <row r="72" s="75" customFormat="1" spans="2:11">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -4756,7 +4841,7 @@
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" s="63" customFormat="1" spans="2:11">
+    <row r="73" s="64" customFormat="1" spans="2:11">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -4768,7 +4853,7 @@
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" s="63" customFormat="1" spans="2:11">
+    <row r="74" s="64" customFormat="1" spans="2:11">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -4809,8 +4894,8 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4825,571 +4910,571 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:11">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="55"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:11">
-      <c r="A4" s="28"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="57" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:11">
-      <c r="A5" s="28"/>
-      <c r="B5" s="37">
+      <c r="A5" s="30"/>
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41">
         <v>2</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="39" t="str">
+      <c r="I5" s="41" t="str">
         <f>IF(OR(J5&gt;=75,J5="-"),"是✅","否❌")</f>
         <v>否❌</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="57"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="28"/>
-      <c r="B6" s="40">
+      <c r="A6" s="30"/>
+      <c r="B6" s="42">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44">
         <v>4</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="42" t="str">
+      <c r="I6" s="44" t="str">
         <f t="shared" ref="I6:I21" si="0">IF(OR(J6&gt;=75,J6="-"),"是✅","否❌")</f>
         <v>否❌</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="58"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A7" s="28"/>
-      <c r="B7" s="37">
+      <c r="A7" s="30"/>
+      <c r="B7" s="39">
         <v>3</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41">
         <v>14</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="39" t="str">
+      <c r="I7" s="41" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:11">
-      <c r="A8" s="28"/>
-      <c r="B8" s="40">
+      <c r="A8" s="30"/>
+      <c r="B8" s="42">
         <v>4</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42">
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44">
         <v>4</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="42" t="str">
+      <c r="I8" s="44" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="58"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:11">
-      <c r="A9" s="28"/>
-      <c r="B9" s="37">
+      <c r="A9" s="30"/>
+      <c r="B9" s="39">
         <v>5</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41">
         <v>2</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="39" t="str">
+      <c r="I9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>是✅</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="41">
         <v>82</v>
       </c>
-      <c r="K9" s="57"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="28"/>
-      <c r="B10" s="40">
+      <c r="A10" s="30"/>
+      <c r="B10" s="42">
         <v>6</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44">
         <v>5</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="42" t="str">
+      <c r="I10" s="44" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="58"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:11">
-      <c r="A11" s="28"/>
-      <c r="B11" s="37">
+      <c r="A11" s="30"/>
+      <c r="B11" s="39">
         <v>7</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39">
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41">
         <v>6</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="39" t="str">
+      <c r="I11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>是✅</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="41">
         <v>89</v>
       </c>
-      <c r="K11" s="57"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:11">
-      <c r="A12" s="28"/>
-      <c r="B12" s="40">
+      <c r="A12" s="30"/>
+      <c r="B12" s="42">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42">
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44">
         <v>5</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="42" t="str">
+      <c r="I12" s="44" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="58"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="28"/>
-      <c r="B13" s="37">
+      <c r="A13" s="30"/>
+      <c r="B13" s="39">
         <v>9</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41">
         <v>4</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="39" t="str">
+      <c r="I13" s="41" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="57"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A14" s="28"/>
-      <c r="B14" s="40">
+      <c r="A14" s="30"/>
+      <c r="B14" s="42">
         <v>10</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42">
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44">
         <v>0</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="42" t="str">
+      <c r="I14" s="44" t="str">
         <f t="shared" si="0"/>
         <v>是✅</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="44">
         <v>79</v>
       </c>
-      <c r="K14" s="58"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:11">
-      <c r="A15" s="28"/>
-      <c r="B15" s="37">
+      <c r="A15" s="30"/>
+      <c r="B15" s="39">
         <v>11</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41">
         <v>6</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="39" t="str">
+      <c r="I15" s="41" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="57" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A16" s="28"/>
-      <c r="B16" s="40">
+      <c r="A16" s="30"/>
+      <c r="B16" s="42">
         <v>12</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44">
         <v>4</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="42" t="str">
+      <c r="I16" s="44" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="58"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A17" s="28"/>
-      <c r="B17" s="37">
+      <c r="A17" s="30"/>
+      <c r="B17" s="39">
         <v>13</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41">
         <v>2</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="39" t="str">
+      <c r="I17" s="41" t="str">
         <f t="shared" si="0"/>
         <v>是✅</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="57"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A18" s="28"/>
-      <c r="B18" s="40">
+      <c r="A18" s="30"/>
+      <c r="B18" s="42">
         <v>14</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42">
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44">
         <v>4</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="42" t="str">
+      <c r="I18" s="44" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="58"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A19" s="28"/>
-      <c r="B19" s="37">
+      <c r="A19" s="30"/>
+      <c r="B19" s="39">
         <v>15</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41">
         <v>4</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="39" t="str">
+      <c r="I19" s="41" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="57"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A20" s="28"/>
-      <c r="B20" s="40">
+      <c r="A20" s="30"/>
+      <c r="B20" s="42">
         <v>16</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44">
         <v>4</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="42" t="str">
+      <c r="I20" s="44" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="58"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A21" s="28"/>
-      <c r="B21" s="37">
+      <c r="A21" s="30"/>
+      <c r="B21" s="39">
         <v>17</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41">
         <v>5</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="39" t="str">
+      <c r="I21" s="41" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="57"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="60"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="61"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="61"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="62"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5427,7 +5512,7 @@
   <sheetPr/>
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -5461,24 +5546,24 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A2" s="6"/>
@@ -5494,24 +5579,24 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
     </row>
     <row r="3" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A3" s="8" t="s">
@@ -5550,27 +5635,27 @@
       <c r="L3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:13">
       <c r="A4" s="11" t="s">
@@ -5588,35 +5673,35 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="23"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:13">
       <c r="A5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>4</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="24"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:13">
       <c r="A6" s="11" t="s">
@@ -5634,35 +5719,35 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="23"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:13">
       <c r="A7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
         <v>4</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="24"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:13">
       <c r="A8" s="11" t="s">
@@ -5680,35 +5765,35 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="23"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:13">
       <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>5</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="24"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:13">
       <c r="A10" s="11" t="s">
@@ -5726,35 +5811,35 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="23"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:13">
       <c r="A11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15">
         <v>5</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="24"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:13">
       <c r="A12" s="11" t="s">
@@ -5772,35 +5857,35 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="23"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:13">
       <c r="A13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="24"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:13">
       <c r="A14" s="11" t="s">
@@ -5818,35 +5903,35 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="23"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:13">
       <c r="A15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15">
         <v>4</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="24"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:13">
       <c r="A16" s="11" t="s">
@@ -5864,35 +5949,35 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="23"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:13">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
         <v>4</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="24"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:13">
       <c r="A18" s="11" t="s">
@@ -5910,38 +5995,38 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="23"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:13">
       <c r="A19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15">
         <v>4</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="24"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -5956,15 +6041,15 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="23"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="27" ht="15" spans="7:7">
-      <c r="G27" s="19"/>
+      <c r="G27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5976,6 +6061,441 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.675" customWidth="1"/>
+    <col min="3" max="3" width="12.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.675" customWidth="1"/>
+    <col min="5" max="5" width="12.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="27.175" customWidth="1"/>
+    <col min="7" max="7" width="12.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.0083333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.3416666666667" customWidth="1"/>
+    <col min="10" max="11" width="21.675" customWidth="1"/>
+    <col min="12" max="12" width="12.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.175" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:31">
+      <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
+        <v>4</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1" ht="15" spans="7:7">
+      <c r="G25" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="R6:R34"/>
@@ -5991,7 +6511,7 @@
   <sheetData>
     <row r="6" spans="18:18">
       <c r="R6" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="18:18">
@@ -6008,7 +6528,7 @@
     </row>
     <row r="30" spans="18:18">
       <c r="R30" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="18:18">
@@ -6038,7 +6558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -6054,7 +6574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -6071,29 +6591,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
+++ b/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="675" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="考试流程" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="139">
   <si>
     <t>考试流程</t>
   </si>
@@ -446,6 +446,9 @@
     <t>课程描述</t>
   </si>
   <si>
+    <t>考试描述</t>
+  </si>
+  <si>
     <t>考试时间</t>
   </si>
   <si>
@@ -470,6 +473,9 @@
     <t>反馈与总结</t>
   </si>
   <si>
+    <t>考试安排</t>
+  </si>
+  <si>
     <t>2022-10-22 09:00~11:30</t>
   </si>
   <si>
@@ -482,10 +488,52 @@
     <t xml:space="preserve"> 2022-10-23 14:30~17:00</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>尚德机构网页版</t>
   </si>
   <si>
     <t>尚德机构APP</t>
+  </si>
+  <si>
+    <t>学习时间安排</t>
+  </si>
+  <si>
+    <t>想法</t>
+  </si>
+  <si>
+    <t>安排</t>
+  </si>
+  <si>
+    <t>9节录播课，3节串讲课</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  先看看老师发的资料
+然后学课
+最后做题
+自己回顾一下</t>
+  </si>
+  <si>
+    <t>第一天：整两节</t>
+  </si>
+  <si>
+    <t>15节录播课，3节串讲</t>
+  </si>
+  <si>
+    <t>先看看老师发的资料
+然后学课
+最后做题
+自己回顾一下</t>
+  </si>
+  <si>
+    <t>第一天：整1节</t>
+  </si>
+  <si>
+    <t>15节录播课，3节串讲，2节急救包课程</t>
+  </si>
+  <si>
+    <t>先瞅瞅</t>
   </si>
 </sst>
 </file>
@@ -504,14 +552,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,6 +604,14 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1135,7 +1183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -1217,43 +1265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF6975D0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF6975D0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEDEFFA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF6975D0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF6975D0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1280,19 +1291,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF6975D0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF6975D0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2217,7 +2215,7 @@
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2238,7 +2236,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2247,7 +2245,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="81" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="77" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2265,28 +2263,28 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="18" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="19" borderId="85" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2295,10 +2293,10 @@
     <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2359,195 +2357,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2587,19 +2573,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2617,300 +2603,300 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="59" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="61" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="63" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="65" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="60" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="63" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="61" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="69" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="70" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="63" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="71" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="72" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="73" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="72" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="65" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="65" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="68" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="71" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="70" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="70" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="65" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="73" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="73" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="74" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="75" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="75" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="75" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="76" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="77" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="76" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="78" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="75" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2983,6 +2969,96 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2927350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3811905" y="7296150"/>
+          <a:ext cx="2927350" cy="1644015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>64135</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2930525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2329180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect l="6012" r="11751"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876040" y="15382875"/>
+          <a:ext cx="2866390" cy="2230755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3364,7 +3440,7 @@
   <sheetPr/>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -3381,427 +3457,427 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.5" customHeight="1" spans="1:10">
-      <c r="A1" s="27"/>
-      <c r="B1" s="129" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="168"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="164"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="169"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:10">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133" t="s">
+      <c r="A3" s="128"/>
+      <c r="B3" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="171"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="167"/>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136" t="s">
+      <c r="A4" s="131"/>
+      <c r="B4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="173"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="169"/>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A5" s="138"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="137" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="174"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:10">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136" t="s">
+      <c r="A6" s="131"/>
+      <c r="B6" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A7" s="135"/>
-      <c r="B7" s="136" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
     </row>
     <row r="8" ht="68" customHeight="1" spans="1:10">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A9" s="135"/>
-      <c r="B9" s="136" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="173"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A10" s="135"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="140" t="s">
+      <c r="A10" s="131"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="173"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="169"/>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A11" s="135"/>
-      <c r="B11" s="136" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="173"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="169"/>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A12" s="132"/>
-      <c r="B12" s="136" t="s">
+      <c r="A12" s="128"/>
+      <c r="B12" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="171"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="167"/>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A13" s="132"/>
-      <c r="B13" s="141" t="s">
+      <c r="A13" s="128"/>
+      <c r="B13" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="143" t="s">
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="177"/>
-      <c r="J13" s="171"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="167"/>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A14" s="132"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="137" t="s">
+      <c r="A14" s="128"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="171"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="167"/>
     </row>
     <row r="15" ht="68" customHeight="1" spans="1:10">
-      <c r="A15" s="146"/>
-      <c r="B15" s="147" t="s">
+      <c r="A15" s="142"/>
+      <c r="B15" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="148" t="s">
+      <c r="C15" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="149" t="s">
+      <c r="D15" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" ht="35" customHeight="1" spans="1:10">
-      <c r="A16" s="146"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="148" t="s">
+      <c r="A16" s="142"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="151" t="s">
+      <c r="D16" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="180"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A17" s="152"/>
-      <c r="B17" s="153" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="155" t="s">
+      <c r="D17" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="183"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" ht="54" customHeight="1" spans="1:14">
-      <c r="A18" s="146"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="156" t="s">
+      <c r="A18" s="142"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="157" t="s">
+      <c r="D18" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="180"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="176"/>
       <c r="N18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" ht="35" customHeight="1" spans="1:10">
-      <c r="A19" s="146"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="156" t="s">
+      <c r="A19" s="142"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="180"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="176"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A20" s="146"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="156" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="180"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="176"/>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A21" s="146"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="156" t="s">
+      <c r="A21" s="142"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="180"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="176"/>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A22" s="146"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="160" t="s">
+      <c r="A22" s="142"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="148" t="s">
+      <c r="D22" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="180"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:10">
-      <c r="A23" s="146"/>
-      <c r="B23" s="153" t="s">
+      <c r="A23" s="142"/>
+      <c r="B23" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="154" t="s">
+      <c r="C23" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="155" t="s">
+      <c r="D23" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="180"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="176"/>
     </row>
     <row r="24" ht="80" customHeight="1" spans="1:10">
-      <c r="A24" s="146"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="161" t="s">
+      <c r="A24" s="142"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="155" t="s">
+      <c r="D24" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="180"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="176"/>
     </row>
     <row r="25" ht="32" customHeight="1" spans="1:10">
-      <c r="A25" s="146"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="163" t="s">
+      <c r="A25" s="142"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="180"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="176"/>
     </row>
     <row r="26" ht="16.5" spans="1:10">
-      <c r="A26" s="165"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="186"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="182"/>
     </row>
     <row r="27" ht="17.25" spans="1:10">
-      <c r="A27" s="167"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="128"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -3893,45 +3969,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.63333333333333" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.3416666666667" style="64" customWidth="1"/>
-    <col min="4" max="4" width="10.0083333333333" style="64" customWidth="1"/>
-    <col min="5" max="5" width="25.3416666666667" style="64" customWidth="1"/>
-    <col min="6" max="6" width="10.675" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.0083333333333" style="64" customWidth="1"/>
-    <col min="8" max="8" width="25.3416666666667" style="64" customWidth="1"/>
-    <col min="9" max="9" width="6.45" style="64" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="64" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="64" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="64"/>
+    <col min="1" max="1" width="11.625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="5.63333333333333" style="60" customWidth="1"/>
+    <col min="3" max="3" width="10.3416666666667" style="60" customWidth="1"/>
+    <col min="4" max="4" width="10.0083333333333" style="60" customWidth="1"/>
+    <col min="5" max="5" width="25.3416666666667" style="60" customWidth="1"/>
+    <col min="6" max="6" width="10.675" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.0083333333333" style="60" customWidth="1"/>
+    <col min="8" max="8" width="25.3416666666667" style="60" customWidth="1"/>
+    <col min="9" max="9" width="6.45" style="60" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="60" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="60" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" s="64" customFormat="1" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78" t="s">
+    <row r="1" s="60" customFormat="1" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="118"/>
-    </row>
-    <row r="2" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="119"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="114"/>
+    </row>
+    <row r="2" s="61" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="115"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -3943,25 +4019,25 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+    <row r="3" s="61" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="120"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="116"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -3973,17 +4049,17 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" s="65" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="121"/>
+    <row r="4" s="61" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="117"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -3995,19 +4071,19 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" s="66" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
-      <c r="A5" s="87"/>
-      <c r="B5" s="89" t="s">
+    <row r="5" s="62" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
+      <c r="A5" s="83"/>
+      <c r="B5" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -4019,23 +4095,23 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A6" s="87"/>
-      <c r="B6" s="91" t="s">
+    <row r="6" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A6" s="83"/>
+      <c r="B6" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="123"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="119"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -4047,27 +4123,27 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A7" s="87"/>
-      <c r="B7" s="97" t="s">
+    <row r="7" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A7" s="83"/>
+      <c r="B7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="100" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="125"/>
-      <c r="J7" s="123"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="119"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -4079,21 +4155,21 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A8" s="87"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104" t="s">
+    <row r="8" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A8" s="83"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="123"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="119"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -4105,31 +4181,31 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A9" s="87"/>
-      <c r="B9" s="97" t="s">
+    <row r="9" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A9" s="83"/>
+      <c r="B9" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="123"/>
+      <c r="J9" s="119"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -4141,21 +4217,21 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A10" s="87"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="111" t="s">
+    <row r="10" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A10" s="83"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="111" t="s">
+      <c r="H10" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="123"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="119"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
@@ -4167,17 +4243,17 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="123"/>
+    <row r="11" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="119"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -4189,19 +4265,19 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" s="66" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
-      <c r="A12" s="87"/>
-      <c r="B12" s="89" t="s">
+    <row r="12" s="62" customFormat="1" ht="28.5" customHeight="1" spans="1:21">
+      <c r="A12" s="83"/>
+      <c r="B12" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -4213,23 +4289,23 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A13" s="87"/>
-      <c r="B13" s="91" t="s">
+    <row r="13" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A13" s="83"/>
+      <c r="B13" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="88"/>
+      <c r="D13" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96" t="s">
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="123"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="119"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
@@ -4241,29 +4317,29 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A14" s="87"/>
-      <c r="B14" s="97" t="s">
+    <row r="14" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A14" s="83"/>
+      <c r="B14" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="G14" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="100" t="s">
+      <c r="H14" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="125"/>
-      <c r="J14" s="123"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="119"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
@@ -4275,21 +4351,21 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A15" s="87"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="99" t="s">
+    <row r="15" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A15" s="83"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="123"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="119"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
@@ -4301,21 +4377,21 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A16" s="87"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="99" t="s">
+    <row r="16" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A16" s="83"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="123"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="119"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -4327,23 +4403,23 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A17" s="87"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104" t="s">
+    <row r="17" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A17" s="83"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="123"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="119"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
@@ -4355,29 +4431,29 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A18" s="87"/>
-      <c r="B18" s="97" t="s">
+    <row r="18" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A18" s="83"/>
+      <c r="B18" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="100" t="s">
+      <c r="F18" s="103"/>
+      <c r="G18" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="126" t="s">
+      <c r="I18" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="123"/>
+      <c r="J18" s="119"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -4389,23 +4465,23 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" s="66" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A19" s="87"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110" t="s">
+    <row r="19" s="62" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+      <c r="A19" s="83"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="123"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="119"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -4417,17 +4493,17 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" s="66" customFormat="1" spans="1:21">
-      <c r="A20" s="87"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="127"/>
+    <row r="20" s="62" customFormat="1" spans="1:21">
+      <c r="A20" s="83"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="123"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -4439,17 +4515,17 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" s="66" customFormat="1" ht="17.25" spans="1:21">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="128"/>
+    <row r="21" s="62" customFormat="1" ht="17.25" spans="1:21">
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="124"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -4461,7 +4537,7 @@
       <c r="T21"/>
       <c r="U21"/>
     </row>
-    <row r="22" s="64" customFormat="1" spans="12:21">
+    <row r="22" s="60" customFormat="1" spans="12:21">
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
@@ -4473,7 +4549,7 @@
       <c r="T22"/>
       <c r="U22"/>
     </row>
-    <row r="23" s="67" customFormat="1" ht="15" spans="12:21">
+    <row r="23" s="63" customFormat="1" ht="15" spans="12:21">
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -4485,7 +4561,7 @@
       <c r="T23"/>
       <c r="U23"/>
     </row>
-    <row r="24" s="67" customFormat="1" ht="15" spans="12:21">
+    <row r="24" s="63" customFormat="1" ht="15" spans="12:21">
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -4497,7 +4573,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" s="68" customFormat="1" spans="12:21">
+    <row r="25" s="64" customFormat="1" spans="12:21">
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -4509,7 +4585,7 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" s="68" customFormat="1" spans="12:21">
+    <row r="26" s="64" customFormat="1" spans="12:21">
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -4521,27 +4597,27 @@
       <c r="T26"/>
       <c r="U26"/>
     </row>
-    <row r="27" s="68" customFormat="1"/>
-    <row r="28" s="68" customFormat="1"/>
-    <row r="29" s="68" customFormat="1"/>
-    <row r="30" s="68" customFormat="1"/>
-    <row r="31" s="68" customFormat="1"/>
-    <row r="32" s="68" customFormat="1"/>
-    <row r="33" s="68" customFormat="1"/>
-    <row r="34" s="68" customFormat="1"/>
-    <row r="35" s="68" customFormat="1"/>
-    <row r="36" s="68" customFormat="1"/>
-    <row r="37" s="68" customFormat="1"/>
-    <row r="38" s="68" customFormat="1"/>
-    <row r="39" s="68" customFormat="1"/>
-    <row r="40" s="68" customFormat="1"/>
-    <row r="41" s="68" customFormat="1"/>
-    <row r="42" s="68" customFormat="1"/>
-    <row r="43" s="68" customFormat="1"/>
-    <row r="44" s="68" customFormat="1"/>
-    <row r="45" s="69" customFormat="1"/>
-    <row r="46" s="67" customFormat="1" ht="15"/>
-    <row r="48" s="70" customFormat="1" spans="2:11">
+    <row r="27" s="64" customFormat="1"/>
+    <row r="28" s="64" customFormat="1"/>
+    <row r="29" s="64" customFormat="1"/>
+    <row r="30" s="64" customFormat="1"/>
+    <row r="31" s="64" customFormat="1"/>
+    <row r="32" s="64" customFormat="1"/>
+    <row r="33" s="64" customFormat="1"/>
+    <row r="34" s="64" customFormat="1"/>
+    <row r="35" s="64" customFormat="1"/>
+    <row r="36" s="64" customFormat="1"/>
+    <row r="37" s="64" customFormat="1"/>
+    <row r="38" s="64" customFormat="1"/>
+    <row r="39" s="64" customFormat="1"/>
+    <row r="40" s="64" customFormat="1"/>
+    <row r="41" s="64" customFormat="1"/>
+    <row r="42" s="64" customFormat="1"/>
+    <row r="43" s="64" customFormat="1"/>
+    <row r="44" s="64" customFormat="1"/>
+    <row r="45" s="65" customFormat="1"/>
+    <row r="46" s="63" customFormat="1" ht="15"/>
+    <row r="48" s="66" customFormat="1" spans="2:11">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -4553,7 +4629,7 @@
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" s="71" customFormat="1" ht="13.5" spans="2:11">
+    <row r="49" s="67" customFormat="1" ht="13.5" spans="2:11">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -4565,7 +4641,7 @@
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" s="72" customFormat="1" spans="2:11">
+    <row r="50" s="68" customFormat="1" spans="2:11">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -4577,7 +4653,7 @@
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" s="73" customFormat="1" spans="2:11">
+    <row r="51" s="69" customFormat="1" spans="2:11">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -4589,7 +4665,7 @@
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" s="74" customFormat="1" spans="2:11">
+    <row r="52" s="70" customFormat="1" spans="2:11">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -4601,7 +4677,7 @@
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" s="73" customFormat="1" spans="2:11">
+    <row r="53" s="69" customFormat="1" spans="2:11">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -4613,7 +4689,7 @@
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" s="73" customFormat="1" spans="2:11">
+    <row r="54" s="69" customFormat="1" spans="2:11">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -4625,7 +4701,7 @@
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" s="73" customFormat="1" spans="2:11">
+    <row r="55" s="69" customFormat="1" spans="2:11">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -4637,7 +4713,7 @@
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" s="73" customFormat="1" spans="2:11">
+    <row r="56" s="69" customFormat="1" spans="2:11">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -4649,7 +4725,7 @@
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" s="73" customFormat="1" spans="2:11">
+    <row r="57" s="69" customFormat="1" spans="2:11">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -4661,7 +4737,7 @@
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" s="73" customFormat="1" spans="2:11">
+    <row r="58" s="69" customFormat="1" spans="2:11">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -4673,7 +4749,7 @@
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" s="72" customFormat="1" spans="2:11">
+    <row r="59" s="68" customFormat="1" spans="2:11">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -4685,7 +4761,7 @@
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" s="72" customFormat="1" spans="2:11">
+    <row r="60" s="68" customFormat="1" spans="2:11">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -4697,7 +4773,7 @@
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" s="72" customFormat="1" spans="2:11">
+    <row r="61" s="68" customFormat="1" spans="2:11">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -4709,7 +4785,7 @@
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" s="75" customFormat="1" spans="2:11">
+    <row r="62" s="71" customFormat="1" spans="2:11">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -4721,7 +4797,7 @@
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" s="75" customFormat="1" spans="2:11">
+    <row r="63" s="71" customFormat="1" spans="2:11">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -4733,7 +4809,7 @@
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" s="76" customFormat="1" spans="2:11">
+    <row r="64" s="72" customFormat="1" spans="2:11">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -4745,7 +4821,7 @@
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" s="75" customFormat="1" spans="2:11">
+    <row r="65" s="71" customFormat="1" spans="2:11">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -4757,7 +4833,7 @@
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" s="75" customFormat="1" spans="2:11">
+    <row r="66" s="71" customFormat="1" spans="2:11">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -4769,7 +4845,7 @@
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" s="75" customFormat="1" spans="2:11">
+    <row r="67" s="71" customFormat="1" spans="2:11">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -4781,7 +4857,7 @@
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" s="75" customFormat="1" spans="2:11">
+    <row r="68" s="71" customFormat="1" spans="2:11">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -4793,7 +4869,7 @@
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" s="75" customFormat="1" spans="2:11">
+    <row r="69" s="71" customFormat="1" spans="2:11">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -4805,7 +4881,7 @@
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" s="75" customFormat="1" spans="2:11">
+    <row r="70" s="71" customFormat="1" spans="2:11">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -4817,7 +4893,7 @@
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" s="75" customFormat="1" spans="2:11">
+    <row r="71" s="71" customFormat="1" spans="2:11">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -4829,7 +4905,7 @@
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" s="75" customFormat="1" spans="2:11">
+    <row r="72" s="71" customFormat="1" spans="2:11">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -4841,7 +4917,7 @@
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" s="64" customFormat="1" spans="2:11">
+    <row r="73" s="60" customFormat="1" spans="2:11">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -4853,7 +4929,7 @@
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" s="64" customFormat="1" spans="2:11">
+    <row r="74" s="60" customFormat="1" spans="2:11">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -4894,8 +4970,8 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4910,571 +4986,571 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="54"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:11">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="55"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:11">
-      <c r="A4" s="30"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:11">
-      <c r="A5" s="30"/>
-      <c r="B5" s="39">
+      <c r="A5" s="26"/>
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41">
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37">
         <v>2</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="41" t="str">
+      <c r="I5" s="37" t="str">
         <f>IF(OR(J5&gt;=75,J5="-"),"是✅","否❌")</f>
         <v>否❌</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="58"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="30"/>
-      <c r="B6" s="42">
+      <c r="A6" s="26"/>
+      <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40">
         <v>4</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="44" t="str">
+      <c r="I6" s="40" t="str">
         <f t="shared" ref="I6:I21" si="0">IF(OR(J6&gt;=75,J6="-"),"是✅","否❌")</f>
         <v>否❌</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="59"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A7" s="30"/>
-      <c r="B7" s="39">
+      <c r="A7" s="26"/>
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37">
         <v>14</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="41" t="str">
+      <c r="I7" s="37" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="60"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:11">
-      <c r="A8" s="30"/>
-      <c r="B8" s="42">
+      <c r="A8" s="26"/>
+      <c r="B8" s="38">
         <v>4</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40">
         <v>4</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="44" t="str">
+      <c r="I8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="59"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:11">
-      <c r="A9" s="30"/>
-      <c r="B9" s="39">
+      <c r="A9" s="26"/>
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37">
         <v>2</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="41" t="str">
+      <c r="I9" s="37" t="str">
         <f t="shared" si="0"/>
         <v>是✅</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="37">
         <v>82</v>
       </c>
-      <c r="K9" s="58"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="30"/>
-      <c r="B10" s="42">
+      <c r="A10" s="26"/>
+      <c r="B10" s="38">
         <v>6</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40">
         <v>5</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="44" t="str">
+      <c r="I10" s="40" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="59"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:11">
-      <c r="A11" s="30"/>
-      <c r="B11" s="39">
+      <c r="A11" s="26"/>
+      <c r="B11" s="35">
         <v>7</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37">
         <v>6</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="41" t="str">
+      <c r="I11" s="37" t="str">
         <f t="shared" si="0"/>
         <v>是✅</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="37">
         <v>89</v>
       </c>
-      <c r="K11" s="58"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:11">
-      <c r="A12" s="30"/>
-      <c r="B12" s="42">
+      <c r="A12" s="26"/>
+      <c r="B12" s="38">
         <v>8</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40">
         <v>5</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="44" t="str">
+      <c r="I12" s="40" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="59"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="30"/>
-      <c r="B13" s="39">
+      <c r="A13" s="26"/>
+      <c r="B13" s="35">
         <v>9</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37">
         <v>4</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="41" t="str">
+      <c r="I13" s="37" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="58"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A14" s="30"/>
-      <c r="B14" s="42">
+      <c r="A14" s="26"/>
+      <c r="B14" s="38">
         <v>10</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40">
         <v>0</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="44" t="str">
+      <c r="I14" s="40" t="str">
         <f t="shared" si="0"/>
         <v>是✅</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="40">
         <v>79</v>
       </c>
-      <c r="K14" s="59"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:11">
-      <c r="A15" s="30"/>
-      <c r="B15" s="39">
+      <c r="A15" s="26"/>
+      <c r="B15" s="35">
         <v>11</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41">
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37">
         <v>6</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="41" t="str">
+      <c r="I15" s="37" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="58" t="s">
+      <c r="J15" s="37"/>
+      <c r="K15" s="54" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A16" s="30"/>
-      <c r="B16" s="42">
+      <c r="A16" s="26"/>
+      <c r="B16" s="38">
         <v>12</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40">
         <v>4</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="44" t="str">
+      <c r="I16" s="40" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="59"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A17" s="30"/>
-      <c r="B17" s="39">
+      <c r="A17" s="26"/>
+      <c r="B17" s="35">
         <v>13</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37">
         <v>2</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="41" t="str">
+      <c r="I17" s="37" t="str">
         <f t="shared" si="0"/>
         <v>是✅</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="58"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A18" s="30"/>
-      <c r="B18" s="42">
+      <c r="A18" s="26"/>
+      <c r="B18" s="38">
         <v>14</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40">
         <v>4</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="44" t="str">
+      <c r="I18" s="40" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A19" s="30"/>
-      <c r="B19" s="39">
+      <c r="A19" s="26"/>
+      <c r="B19" s="35">
         <v>15</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37">
         <v>4</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="41" t="str">
+      <c r="I19" s="37" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="58"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A20" s="30"/>
-      <c r="B20" s="42">
+      <c r="A20" s="26"/>
+      <c r="B20" s="38">
         <v>16</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44">
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40">
         <v>4</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="44" t="str">
+      <c r="I20" s="40" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="59"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A21" s="30"/>
-      <c r="B21" s="39">
+      <c r="A21" s="26"/>
+      <c r="B21" s="35">
         <v>17</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37">
         <v>5</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="41" t="str">
+      <c r="I21" s="37" t="str">
         <f t="shared" si="0"/>
         <v>否❌</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="58"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="61"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="62"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="63"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5510,10 +5586,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5521,552 +5597,576 @@
     <col min="1" max="1" width="12.3416666666667" customWidth="1"/>
     <col min="2" max="2" width="25.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="12.3416666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.675" customWidth="1"/>
-    <col min="5" max="7" width="12.3416666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.0083333333333" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="11" width="21.675" customWidth="1"/>
-    <col min="12" max="12" width="12.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="14.175" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="8.675" customWidth="1"/>
+    <col min="6" max="8" width="12.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="12" width="21.675" customWidth="1"/>
+    <col min="13" max="13" width="12.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:31">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:32">
+      <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A4" s="11" t="s">
+      <c r="N3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+    </row>
+    <row r="4" ht="100" customHeight="1" spans="1:14">
+      <c r="A4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A5" s="11" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" ht="100" customHeight="1" spans="1:14">
+      <c r="A5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" ht="100" customHeight="1" spans="1:14">
+      <c r="A6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
         <v>14</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A7" s="11" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" ht="100" customHeight="1" spans="1:14">
+      <c r="A7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A8" s="11" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" ht="100" customHeight="1" spans="1:14">
+      <c r="A8" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A9" s="11" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" ht="130" customHeight="1" spans="1:14">
+      <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
         <v>5</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A10" s="11" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="1:14">
+      <c r="A10" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A11" s="11" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="1:14">
+      <c r="A11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A12" s="11" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" ht="100" customHeight="1" spans="1:14">
+      <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
         <v>4</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A13" s="11" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" ht="100" customHeight="1" spans="1:14">
+      <c r="A13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A14" s="11" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" ht="100" customHeight="1" spans="1:14">
+      <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
         <v>6</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A15" s="11" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" ht="212" customHeight="1" spans="1:14">
+      <c r="A15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
         <v>4</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A16" s="11" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" ht="100" customHeight="1" spans="1:14">
+      <c r="A16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A17" s="11" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" ht="100" customHeight="1" spans="1:14">
+      <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
         <v>4</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A18" s="11" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" ht="100" customHeight="1" spans="1:14">
+      <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
         <v>4</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A19" s="11" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" ht="100" customHeight="1" spans="1:14">
+      <c r="A19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
         <v>4</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A20" s="16" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" ht="100" customHeight="1" spans="1:14">
+      <c r="A20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
         <v>5</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="27" ht="15" spans="7:7">
-      <c r="G27" s="20"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="27" ht="15" spans="8:8">
+      <c r="H27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6085,406 +6185,378 @@
     <col min="13" max="13" width="14.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:31">
-      <c r="A1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A3" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:31">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
+      <c r="M3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="24"/>
+      <c r="F4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="25"/>
+      <c r="F5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
         <v>4</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="24"/>
+      <c r="F6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="25"/>
+      <c r="F7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="26"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="25"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="24"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="25"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="24"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="25"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="24"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="25"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="24"/>
-    </row>
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
     <row r="19" customFormat="1"/>
     <row r="20" customFormat="1"/>
     <row r="21" customFormat="1"/>
     <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1" ht="15" spans="7:7">
-      <c r="G25" s="20"/>
+    <row r="23" customFormat="1" ht="15" spans="7:7">
+      <c r="G23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6501,7 +6573,7 @@
   <dimension ref="R6:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6510,38 +6582,38 @@
   </cols>
   <sheetData>
     <row r="6" spans="18:18">
-      <c r="R6" s="1" t="s">
-        <v>123</v>
+      <c r="R6" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="18:18">
-      <c r="R7" s="1"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="18:18">
-      <c r="R8" s="1"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="18:18">
-      <c r="R9" s="1"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="18:18">
-      <c r="R10" s="1"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="30" spans="18:18">
-      <c r="R30" s="2" t="s">
-        <v>124</v>
+      <c r="R30" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="18:18">
-      <c r="R31" s="2"/>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="18:18">
-      <c r="R32" s="2"/>
+      <c r="R32" s="22"/>
     </row>
     <row r="33" spans="18:18">
-      <c r="R33" s="2"/>
+      <c r="R33" s="22"/>
     </row>
     <row r="34" spans="18:18">
-      <c r="R34" s="2"/>
+      <c r="R34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6561,14 +6633,425 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.675" customWidth="1"/>
+    <col min="3" max="3" width="12.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.675" customWidth="1"/>
+    <col min="5" max="5" width="12.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="27.175" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
+    <col min="8" max="8" width="16.0083333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.3416666666667" customWidth="1"/>
+    <col min="10" max="11" width="21.675" customWidth="1"/>
+    <col min="12" max="12" width="12.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.175" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:31">
+      <c r="A1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="35" customHeight="1" spans="1:31">
+      <c r="A3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+    </row>
+    <row r="4" ht="79" customHeight="1" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" ht="79" customHeight="1" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" ht="87" customHeight="1" spans="1:13">
+      <c r="A6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" ht="62" customHeight="1" spans="1:13">
+      <c r="A7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1" ht="15" spans="7:7">
+      <c r="G23" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6594,14 +7077,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="16.675" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="22.5" customHeight="1"/>
+    <row r="4" ht="22.5" customHeight="1"/>
+    <row r="5" ht="22.5" customHeight="1"/>
+    <row r="6" ht="22.5" customHeight="1"/>
+    <row r="7" ht="22.5" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
+++ b/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="675" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="675"/>
   </bookViews>
   <sheets>
     <sheet name="考试流程" sheetId="9" r:id="rId1"/>
@@ -951,9 +951,9 @@
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="0&quot;年&quot;"/>
     <numFmt numFmtId="180" formatCode="0&quot;月&quot;"/>
-    <numFmt numFmtId="181" formatCode="aaa"/>
-    <numFmt numFmtId="182" formatCode="0&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="d"/>
+    <numFmt numFmtId="181" formatCode="0&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="d"/>
+    <numFmt numFmtId="183" formatCode="aaa"/>
   </numFmts>
   <fonts count="71">
     <font>
@@ -1250,7 +1250,7 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Microsoft YaHei"/>
       <charset val="0"/>
     </font>
@@ -3149,7 +3149,7 @@
     <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3230,19 +3230,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4887,8 +4887,8 @@
   <sheetPr/>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7077,7 +7077,7 @@
   <sheetPr/>
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -8551,8 +8551,8 @@
   <sheetPr/>
   <dimension ref="B1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1"/>
@@ -10445,7 +10445,7 @@
   <dimension ref="B2:Q32"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.775" defaultRowHeight="22.05" customHeight="1"/>
@@ -10702,14 +10702,14 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" ref="D12:H12" si="4">IFERROR(COUNTIFS(C15:C31,"☑")/COUNTA(D15:D31),"-")</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>163</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="4"/>
-        <v>0.0625</v>
+        <v>0.3125</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>163</v>
@@ -10913,7 +10913,7 @@
         <v>182</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>183</v>
@@ -10959,7 +10959,7 @@
         <v>189</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>190</v>
@@ -10999,7 +10999,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="2:17">
       <c r="B19" s="2"/>
       <c r="C19" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>196</v>
@@ -11179,7 +11179,7 @@
         <v>219</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>220</v>
@@ -11271,7 +11271,7 @@
         <v>233</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>234</v>
@@ -11357,7 +11357,7 @@
     <row r="27" s="1" customFormat="1" customHeight="1" spans="2:17">
       <c r="B27" s="2"/>
       <c r="C27" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>247</v>
@@ -11597,7 +11597,7 @@
     <mergeCell ref="O8:O10"/>
   </mergeCells>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>$E15="☑"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11617,22 +11617,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="11" priority="28">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>$G31="☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="11" priority="27">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>$I31="☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="expression" dxfId="11" priority="26">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>$K31="☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11640,7 +11640,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b5873103-e54e-42c7-b8b3-8cbbbe09b09d}</x14:id>
+          <x14:id>{ecc8d183-2a1a-4068-a522-4ce20ed5e157}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11651,7 +11651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11659,7 +11659,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49f60bfa-48b4-438d-856e-1e430a49eebe}</x14:id>
+          <x14:id>{cb6b5c3c-e147-4bb5-8fb5-ff52745a6aa4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11670,7 +11670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11678,13 +11678,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d56ddcd2-d80d-490b-b11d-3d995d8826de}</x14:id>
+          <x14:id>{0fd0a591-6fcc-4e06-897d-020678e40687}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H22">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>$E15="☑"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11694,7 +11694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J13">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11702,13 +11702,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40c7f888-68de-40c8-b190-83484c0f0100}</x14:id>
+          <x14:id>{8a5e2590-a789-4a6a-8407-789648e24a45}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J22">
-    <cfRule type="expression" dxfId="11" priority="22">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$E15="☑"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11718,7 +11718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L13">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11726,13 +11726,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f99ab3f0-6ffe-4f6e-a19a-bf008c465a22}</x14:id>
+          <x14:id>{a52da99f-a867-4591-b795-0b119adc783d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L22">
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>$E15="☑"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11742,7 +11742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11750,7 +11750,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e967ca09-331e-473e-8a23-ed7dedbafbb0}</x14:id>
+          <x14:id>{d79a2b32-3a86-4e59-ae43-5e849b27768a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11781,7 +11781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P13">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11789,7 +11789,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21146c13-b2cf-4b6a-bb05-c6a6d9f4446b}</x14:id>
+          <x14:id>{36855296-8b5c-40ed-af1b-84a531d5718b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11810,37 +11810,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6 E6:F6 G6:H6 I6:J6 K6:L6 M6:N6 O6:P6">
-    <cfRule type="expression" dxfId="12" priority="38">
+    <cfRule type="expression" dxfId="12" priority="65">
       <formula>C6&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10 E8:E10 G8:G10 I8:I10 K8:K10 M8:M10 O8:O10">
-    <cfRule type="expression" dxfId="13" priority="40">
+    <cfRule type="expression" dxfId="13" priority="67">
       <formula>C8&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9">
-    <cfRule type="expression" dxfId="14" priority="39">
+    <cfRule type="expression" dxfId="14" priority="66">
       <formula>C8&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D22 D31">
-    <cfRule type="expression" dxfId="11" priority="30">
+    <cfRule type="expression" dxfId="11" priority="27">
       <formula>$C15="☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F22 F31">
-    <cfRule type="expression" dxfId="11" priority="29">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>$E15="☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P22 P31">
-    <cfRule type="expression" dxfId="11" priority="24">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>$O19="☑"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N22 N31">
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="11" priority="22">
       <formula>$M21="☑"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11856,7 +11856,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b5873103-e54e-42c7-b8b3-8cbbbe09b09d}">
+          <x14:cfRule type="dataBar" id="{ecc8d183-2a1a-4068-a522-4ce20ed5e157}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11871,7 +11871,7 @@
           <xm:sqref>D12:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49f60bfa-48b4-438d-856e-1e430a49eebe}">
+          <x14:cfRule type="dataBar" id="{cb6b5c3c-e147-4bb5-8fb5-ff52745a6aa4}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11886,7 +11886,7 @@
           <xm:sqref>F12:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d56ddcd2-d80d-490b-b11d-3d995d8826de}">
+          <x14:cfRule type="dataBar" id="{0fd0a591-6fcc-4e06-897d-020678e40687}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11901,7 +11901,7 @@
           <xm:sqref>H12:H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40c7f888-68de-40c8-b190-83484c0f0100}">
+          <x14:cfRule type="dataBar" id="{8a5e2590-a789-4a6a-8407-789648e24a45}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11916,7 +11916,7 @@
           <xm:sqref>J12:J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f99ab3f0-6ffe-4f6e-a19a-bf008c465a22}">
+          <x14:cfRule type="dataBar" id="{a52da99f-a867-4591-b795-0b119adc783d}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11931,7 +11931,7 @@
           <xm:sqref>L12:L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e967ca09-331e-473e-8a23-ed7dedbafbb0}">
+          <x14:cfRule type="dataBar" id="{d79a2b32-3a86-4e59-ae43-5e849b27768a}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11946,7 +11946,7 @@
           <xm:sqref>N12:N13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21146c13-b2cf-4b6a-bb05-c6a6d9f4446b}">
+          <x14:cfRule type="dataBar" id="{36855296-8b5c-40ed-af1b-84a531d5718b}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
+++ b/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
@@ -973,14 +973,14 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0&quot;年&quot;"/>
-    <numFmt numFmtId="177" formatCode="mmm\ dd"/>
-    <numFmt numFmtId="178" formatCode="ddd"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="0&quot;月&quot;"/>
-    <numFmt numFmtId="181" formatCode="0&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="aaa"/>
-    <numFmt numFmtId="183" formatCode="d"/>
+    <numFmt numFmtId="176" formatCode="0&quot;月&quot;"/>
+    <numFmt numFmtId="177" formatCode="d"/>
+    <numFmt numFmtId="178" formatCode="mmm\ dd"/>
+    <numFmt numFmtId="179" formatCode="ddd"/>
+    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="0&quot;年&quot;"/>
+    <numFmt numFmtId="182" formatCode="0&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="aaa"/>
   </numFmts>
   <fonts count="72">
     <font>
@@ -3130,13 +3130,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3159,7 +3159,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3171,7 +3171,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3195,13 +3195,13 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3282,19 +3282,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="13" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5653,8 +5653,8 @@
   <sheetPr/>
   <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.775" defaultRowHeight="14.25"/>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="F12" s="11">
         <f>IFERROR(COUNTIFS(E15:E30,"☑")/COUNTA(F15:F30),"-")</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>163</v>
@@ -7759,7 +7759,7 @@
         <v>248</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>249</v>
@@ -8772,7 +8772,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82ebb097-024d-4897-ba60-034e79b841fc}</x14:id>
+          <x14:id>{27179fb7-7656-432d-a74d-848f4d256c0b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8786,7 +8786,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8de637d9-935f-48bb-8179-870c580b8fe4}</x14:id>
+          <x14:id>{02eb2e28-89fe-4f5c-bef0-6536b19aa98d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8800,7 +8800,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e42db0e7-176a-4174-92c0-89c0485a7563}</x14:id>
+          <x14:id>{d4b6190c-73f5-482a-a30e-d2ffb101d0ed}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8814,7 +8814,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8616de1-6fc9-44b1-98ed-25831e42804e}</x14:id>
+          <x14:id>{ab063935-6dc0-4206-8666-ccf98e9f2643}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8828,7 +8828,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8860ed8b-b691-4c30-a5da-dba97ae49179}</x14:id>
+          <x14:id>{323f74f8-86b4-43fa-b822-93c066efcf04}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8842,7 +8842,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5bebfd58-90b3-41ba-8dc2-58d628daab7f}</x14:id>
+          <x14:id>{2966afed-42e2-4acf-9dc6-a438ceb100d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8866,7 +8866,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9e0f782-d311-4c8a-8f47-68e77832114f}</x14:id>
+          <x14:id>{4884fbce-29c8-4923-88a6-cb5156d31d79}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8883,7 +8883,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82ebb097-024d-4897-ba60-034e79b841fc}">
+          <x14:cfRule type="dataBar" id="{27179fb7-7656-432d-a74d-848f4d256c0b}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8898,7 +8898,7 @@
           <xm:sqref>D12:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8de637d9-935f-48bb-8179-870c580b8fe4}">
+          <x14:cfRule type="dataBar" id="{02eb2e28-89fe-4f5c-bef0-6536b19aa98d}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8913,7 +8913,7 @@
           <xm:sqref>F12:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e42db0e7-176a-4174-92c0-89c0485a7563}">
+          <x14:cfRule type="dataBar" id="{d4b6190c-73f5-482a-a30e-d2ffb101d0ed}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8928,7 +8928,7 @@
           <xm:sqref>H12:H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b8616de1-6fc9-44b1-98ed-25831e42804e}">
+          <x14:cfRule type="dataBar" id="{ab063935-6dc0-4206-8666-ccf98e9f2643}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8943,7 +8943,7 @@
           <xm:sqref>J12:J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8860ed8b-b691-4c30-a5da-dba97ae49179}">
+          <x14:cfRule type="dataBar" id="{323f74f8-86b4-43fa-b822-93c066efcf04}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8958,7 +8958,7 @@
           <xm:sqref>L12:L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5bebfd58-90b3-41ba-8dc2-58d628daab7f}">
+          <x14:cfRule type="dataBar" id="{2966afed-42e2-4acf-9dc6-a438ceb100d9}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8973,7 +8973,7 @@
           <xm:sqref>N12:N13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f9e0f782-d311-4c8a-8f47-68e77832114f}">
+          <x14:cfRule type="dataBar" id="{4884fbce-29c8-4923-88a6-cb5156d31d79}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15260,7 +15260,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eaa351c1-b272-46b1-a89f-fe9db0664a31}</x14:id>
+          <x14:id>{60c2302f-bbf2-406f-a23a-703c58a4a1ef}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15279,7 +15279,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4caee3f7-663d-49f3-813d-36f37680e6b6}</x14:id>
+          <x14:id>{db08d8d4-ed5e-440d-8a10-870bbd1b7a95}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15298,7 +15298,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4f1be65-48fa-459c-80c4-08bb32ea9ecc}</x14:id>
+          <x14:id>{0119b0f2-f9fe-41bb-9b88-31e278866c0c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15322,7 +15322,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97e87440-613a-4898-9d35-10613886558a}</x14:id>
+          <x14:id>{cfe52207-6fbf-46ca-98d7-4a8bd9d9515a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15346,7 +15346,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4d1e6ee0-a722-4579-bf63-94522b23e96c}</x14:id>
+          <x14:id>{c8ce488b-b414-4d6b-9434-750ba6d5fab3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15370,7 +15370,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce6d959f-f95a-4e6e-b58e-80afbac3e141}</x14:id>
+          <x14:id>{dd3e91cc-b071-4c28-9162-4d697f128635}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15409,7 +15409,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ab17b5a-a2d6-4288-9409-26412f6eb4ce}</x14:id>
+          <x14:id>{1e6fdecc-109c-4b9e-9d8e-a41c9793c682}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15476,7 +15476,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eaa351c1-b272-46b1-a89f-fe9db0664a31}">
+          <x14:cfRule type="dataBar" id="{60c2302f-bbf2-406f-a23a-703c58a4a1ef}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15491,7 +15491,7 @@
           <xm:sqref>D12:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4caee3f7-663d-49f3-813d-36f37680e6b6}">
+          <x14:cfRule type="dataBar" id="{db08d8d4-ed5e-440d-8a10-870bbd1b7a95}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15506,7 +15506,7 @@
           <xm:sqref>F12:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4f1be65-48fa-459c-80c4-08bb32ea9ecc}">
+          <x14:cfRule type="dataBar" id="{0119b0f2-f9fe-41bb-9b88-31e278866c0c}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15521,7 +15521,7 @@
           <xm:sqref>H12:H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{97e87440-613a-4898-9d35-10613886558a}">
+          <x14:cfRule type="dataBar" id="{cfe52207-6fbf-46ca-98d7-4a8bd9d9515a}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15536,7 +15536,7 @@
           <xm:sqref>J12:J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4d1e6ee0-a722-4579-bf63-94522b23e96c}">
+          <x14:cfRule type="dataBar" id="{c8ce488b-b414-4d6b-9434-750ba6d5fab3}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15551,7 +15551,7 @@
           <xm:sqref>L12:L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce6d959f-f95a-4e6e-b58e-80afbac3e141}">
+          <x14:cfRule type="dataBar" id="{dd3e91cc-b071-4c28-9162-4d697f128635}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15566,7 +15566,7 @@
           <xm:sqref>N12:N13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ab17b5a-a2d6-4288-9409-26412f6eb4ce}">
+          <x14:cfRule type="dataBar" id="{1e6fdecc-109c-4b9e-9d8e-a41c9793c682}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
+++ b/___/table/Two thousand and twenty-two/Self-taught higher education examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13400" tabRatio="675" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="30240" windowHeight="13300" tabRatio="675" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="考试流程" sheetId="9" r:id="rId1"/>
@@ -969,18 +969,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="12">
-    <numFmt numFmtId="176" formatCode="aaa"/>
-    <numFmt numFmtId="177" formatCode="d"/>
-    <numFmt numFmtId="178" formatCode="0&quot;日&quot;"/>
-    <numFmt numFmtId="179" formatCode="0&quot;月&quot;"/>
+    <numFmt numFmtId="176" formatCode="0&quot;日&quot;"/>
+    <numFmt numFmtId="177" formatCode="aaa"/>
+    <numFmt numFmtId="178" formatCode="0&quot;月&quot;"/>
+    <numFmt numFmtId="179" formatCode="0&quot;年&quot;"/>
     <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="ddd"/>
+    <numFmt numFmtId="182" formatCode="mmm\ dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="ddd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0&quot;年&quot;"/>
-    <numFmt numFmtId="183" formatCode="mmm\ dd"/>
   </numFmts>
   <fonts count="72">
     <font>
@@ -1321,14 +1321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,14 +1336,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1365,30 +1394,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1398,14 +1403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,17 +1417,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1441,16 +1441,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,73 +1547,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,7 +1583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,7 +1607,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,7 +1685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,25 +1703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,37 +1721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,8 +2871,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2881,7 +2881,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2916,21 +2931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2938,15 +2938,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2965,6 +2956,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2972,94 +2972,94 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="25" borderId="98" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="96" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="23" borderId="98" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="24" borderId="96" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="99" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="41" borderId="101" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="27" borderId="100" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="23" borderId="97" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="98" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="101" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3068,29 +3068,29 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="96" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="97" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3099,22 +3099,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="101" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="94" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="100" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="94" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3124,10 +3124,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3174,7 +3174,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3249,15 +3249,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3276,10 +3276,10 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,13 +3291,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3475,7 +3475,7 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3484,7 +3484,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3493,23 +3493,23 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3542,16 +3542,16 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3593,16 +3593,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3617,22 +3617,22 @@
     <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3647,7 +3647,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3659,13 +3659,13 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="52" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3675,103 +3675,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="4" borderId="77" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="79" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="78" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="79" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="85" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="85" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="84" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="83" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3780,7 +3780,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="86" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3790,59 +3790,59 @@
     <xf numFmtId="0" fontId="45" fillId="4" borderId="88" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="89" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="90" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="91" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="92" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="89" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="90" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="91" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="93" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -5656,7 +5656,7 @@
   <sheetPr/>
   <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -8776,7 +8776,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0eb50ea3-1813-44d9-bb3d-b586c104e1fe}</x14:id>
+          <x14:id>{c7becb24-7de3-4a48-8d6b-d4b8126b5af9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8790,7 +8790,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{556154cf-7032-4309-b8de-b3ec2294650c}</x14:id>
+          <x14:id>{b398cd28-54cb-4707-ba09-0bf7e473c110}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8804,7 +8804,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94c824c0-ac36-43f1-8864-30b139b61da3}</x14:id>
+          <x14:id>{228828ae-f054-465e-afac-183e5b70926c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8818,7 +8818,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{295ed428-c632-427e-8f31-55eb40a40fd7}</x14:id>
+          <x14:id>{92ec4185-1949-44df-8ddc-6ba6ef9be1a0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8832,7 +8832,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be2bfb49-139a-461e-9afd-64a1657a984a}</x14:id>
+          <x14:id>{1cb7a964-c8bf-49cc-9a82-61981cd14aa4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8846,7 +8846,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f79158a-a353-4a8a-b1f1-96591b507447}</x14:id>
+          <x14:id>{750e4cfc-1808-4033-b706-edb1aad22656}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8870,7 +8870,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08f6c89e-fd96-4279-a05c-6610e2ef5f09}</x14:id>
+          <x14:id>{bc72bc14-e27d-42d0-96a0-bc5552935750}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8887,7 +8887,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0eb50ea3-1813-44d9-bb3d-b586c104e1fe}">
+          <x14:cfRule type="dataBar" id="{c7becb24-7de3-4a48-8d6b-d4b8126b5af9}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8902,7 +8902,7 @@
           <xm:sqref>D12:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{556154cf-7032-4309-b8de-b3ec2294650c}">
+          <x14:cfRule type="dataBar" id="{b398cd28-54cb-4707-ba09-0bf7e473c110}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8917,7 +8917,7 @@
           <xm:sqref>F12:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{94c824c0-ac36-43f1-8864-30b139b61da3}">
+          <x14:cfRule type="dataBar" id="{228828ae-f054-465e-afac-183e5b70926c}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8932,7 +8932,7 @@
           <xm:sqref>H12:H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{295ed428-c632-427e-8f31-55eb40a40fd7}">
+          <x14:cfRule type="dataBar" id="{92ec4185-1949-44df-8ddc-6ba6ef9be1a0}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8947,7 +8947,7 @@
           <xm:sqref>J12:J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{be2bfb49-139a-461e-9afd-64a1657a984a}">
+          <x14:cfRule type="dataBar" id="{1cb7a964-c8bf-49cc-9a82-61981cd14aa4}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8962,7 +8962,7 @@
           <xm:sqref>L12:L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f79158a-a353-4a8a-b1f1-96591b507447}">
+          <x14:cfRule type="dataBar" id="{750e4cfc-1808-4033-b706-edb1aad22656}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8977,7 +8977,7 @@
           <xm:sqref>N12:N13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{08f6c89e-fd96-4279-a05c-6610e2ef5f09}">
+          <x14:cfRule type="dataBar" id="{bc72bc14-e27d-42d0-96a0-bc5552935750}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10083,8 +10083,8 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -15264,7 +15264,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d769a5c5-84cc-4d0a-8c21-236c0f22214c}</x14:id>
+          <x14:id>{69f31f50-813a-48e8-9465-b97973271c3d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15283,7 +15283,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0491d15d-3e8e-422b-964f-7bfa7c7657bb}</x14:id>
+          <x14:id>{d198db2f-1884-45ed-92fd-f98830e71eea}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15302,7 +15302,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fdad7444-eb85-4054-b835-5ef8c630c65d}</x14:id>
+          <x14:id>{01dd88ba-a9f7-4ecf-b1a2-a31debb32680}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15326,7 +15326,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7439065-40f9-4a96-8fd9-500777567429}</x14:id>
+          <x14:id>{e0d5bb54-1bab-4dfa-91d1-6b3f1d870771}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15350,7 +15350,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eee4ebfd-3ced-4c53-b3f5-1e662658b4b6}</x14:id>
+          <x14:id>{6d33ff89-c5a3-48c9-98b6-f5b5f3340797}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15374,7 +15374,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3a201e56-c31d-40ca-8cde-468469b09853}</x14:id>
+          <x14:id>{69a32ced-093a-4bae-b168-7b9b307baee2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15413,7 +15413,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{492ab1e4-5c7f-43fe-8a38-7497e3caf421}</x14:id>
+          <x14:id>{5b0c66e2-c9e7-491c-8cdd-d2c5e22d751a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15480,7 +15480,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d769a5c5-84cc-4d0a-8c21-236c0f22214c}">
+          <x14:cfRule type="dataBar" id="{69f31f50-813a-48e8-9465-b97973271c3d}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15495,7 +15495,7 @@
           <xm:sqref>D12:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0491d15d-3e8e-422b-964f-7bfa7c7657bb}">
+          <x14:cfRule type="dataBar" id="{d198db2f-1884-45ed-92fd-f98830e71eea}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15510,7 +15510,7 @@
           <xm:sqref>F12:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fdad7444-eb85-4054-b835-5ef8c630c65d}">
+          <x14:cfRule type="dataBar" id="{01dd88ba-a9f7-4ecf-b1a2-a31debb32680}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15525,7 +15525,7 @@
           <xm:sqref>H12:H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7439065-40f9-4a96-8fd9-500777567429}">
+          <x14:cfRule type="dataBar" id="{e0d5bb54-1bab-4dfa-91d1-6b3f1d870771}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15540,7 +15540,7 @@
           <xm:sqref>J12:J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eee4ebfd-3ced-4c53-b3f5-1e662658b4b6}">
+          <x14:cfRule type="dataBar" id="{6d33ff89-c5a3-48c9-98b6-f5b5f3340797}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15555,7 +15555,7 @@
           <xm:sqref>L12:L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3a201e56-c31d-40ca-8cde-468469b09853}">
+          <x14:cfRule type="dataBar" id="{69a32ced-093a-4bae-b168-7b9b307baee2}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15570,7 +15570,7 @@
           <xm:sqref>N12:N13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{492ab1e4-5c7f-43fe-8a38-7497e3caf421}">
+          <x14:cfRule type="dataBar" id="{5b0c66e2-c9e7-491c-8cdd-d2c5e22d751a}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
